--- a/raw_data/umd/2023/RL_2023-08-07_SCav.xlsx
+++ b/raw_data/umd/2023/RL_2023-08-07_SCav.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Library/CloudStorage/Box-Box/WI Idea Collaboration Grant Data/UMD Sensor Data/Sensors 2023/08_07_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E56C3EAA-309B-3949-968C-E106A04C6581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF1080A-BBD6-C84C-96F2-1C82E90D0EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{3D01AA14-841E-1A42-A374-D2B6C7E1472F}"/>
   </bookViews>
@@ -20,52 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>Location Properties</t>
-  </si>
-  <si>
-    <t>Location Name = MB5a</t>
-  </si>
-  <si>
-    <t>Location ID = 0625c6d0-ccb3-410b-9357-50e41be8d8e8</t>
-  </si>
-  <si>
-    <t>Latitude = 46.88833 °</t>
-  </si>
-  <si>
-    <t>Longitude = -91.0527833 °</t>
-  </si>
-  <si>
-    <t>Report Properties</t>
-  </si>
-  <si>
-    <t>Start Time = 2023-08-07 11:25:42</t>
-  </si>
-  <si>
-    <t>Time Offset = -05:00:00</t>
-  </si>
-  <si>
-    <t>Duration = 00:00:58</t>
-  </si>
-  <si>
-    <t>Readings = 59</t>
-  </si>
-  <si>
-    <t>Instrument Properties</t>
-  </si>
-  <si>
-    <t>Device Model = Aqua TROLL 600</t>
-  </si>
-  <si>
-    <t>Device SN = 804550</t>
-  </si>
-  <si>
-    <t>Device Model = PowerPack</t>
-  </si>
-  <si>
-    <t>Device SN = 868976</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date Time</t>
   </si>
@@ -126,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -633,7 +588,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -1011,9 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66F55AE-1E9D-5049-886B-A4D832C3B5AE}">
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1037,3342 +994,3247 @@
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45145.476180555554</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11.28485</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4.3961389999999998</v>
+      </c>
+      <c r="D2" s="3">
+        <v>62.195189999999997</v>
+      </c>
+      <c r="E2" s="3">
+        <v>68.820260000000005</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3.1870570000000001E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.99823720000000005</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4.4733170000000003E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3.4754720000000003E-2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>20.035620000000002</v>
+      </c>
+      <c r="K2" s="3">
+        <v>6.5391969999999994E-2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.77900499999999995</v>
+      </c>
+      <c r="M2" s="3">
+        <v>4.5975130000000003E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1.074384</v>
+      </c>
+      <c r="O2" s="3">
+        <v>991.65650000000005</v>
+      </c>
+      <c r="P2" s="3">
+        <v>46.905101289999998</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>-91.035993230000003</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45145.47619212963</v>
+      </c>
+      <c r="B3" s="3">
+        <v>11.27393</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.3952590000000002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>65.547200000000004</v>
+      </c>
+      <c r="E3" s="3">
+        <v>72.529330000000002</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.3588229999999997E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99823919999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.7144060000000002E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.381957E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>20.035419999999998</v>
+      </c>
+      <c r="K3" s="3">
+        <v>6.405276E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.77610840000000003</v>
+      </c>
+      <c r="M3" s="3">
+        <v>4.5033570000000002E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1.0733459999999999</v>
+      </c>
+      <c r="O3" s="3">
+        <v>991.65750000000003</v>
+      </c>
+      <c r="P3" s="3">
+        <v>46.905101289999998</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-91.035993230000003</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45145.476203703707</v>
+      </c>
+      <c r="B4" s="3">
+        <v>11.26301</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.3943789999999998</v>
+      </c>
+      <c r="D4" s="3">
+        <v>68.899209999999997</v>
+      </c>
+      <c r="E4" s="3">
+        <v>76.238399999999999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.5305900000000001E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.9982413</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.9554960000000002E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3.2884419999999998E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>20.035219999999999</v>
+      </c>
+      <c r="K4" s="3">
+        <v>6.2713560000000002E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.77321189999999995</v>
+      </c>
+      <c r="M4" s="3">
+        <v>4.4092020000000003E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1.072309</v>
+      </c>
+      <c r="O4" s="3">
+        <v>991.6585</v>
+      </c>
+      <c r="P4" s="3">
+        <v>46.905101289999998</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-91.035993230000003</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45145.476215277777</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10.58914</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.140504</v>
+      </c>
+      <c r="D5" s="3">
+        <v>84.392179999999996</v>
+      </c>
+      <c r="E5" s="3">
+        <v>94.677070000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.4245029999999998E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99840340000000005</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6.2214779999999997E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3.115499E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>19.351800000000001</v>
+      </c>
+      <c r="K5" s="3">
+        <v>6.5958580000000003E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.82196990000000003</v>
+      </c>
+      <c r="M5" s="3">
+        <v>5.9090770000000001E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.0645770000000001</v>
+      </c>
+      <c r="O5" s="3">
+        <v>991.65890000000002</v>
+      </c>
+      <c r="P5" s="3">
+        <v>46.905101289999998</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-91.035993230000003</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45145.476226851853</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10.549659999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.1275789999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>86.639179999999996</v>
+      </c>
+      <c r="E6" s="3">
+        <v>97.231949999999998</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.5449360000000001E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.99841279999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6.3911129999999997E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3.1060939999999999E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>19.315560000000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>6.57745E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.82385520000000001</v>
+      </c>
+      <c r="M6" s="3">
+        <v>5.9633989999999998E-2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1.063796</v>
+      </c>
+      <c r="O6" s="3">
+        <v>991.65949999999998</v>
+      </c>
+      <c r="P6" s="3">
+        <v>46.905101289999998</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-91.035993230000003</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45145.476238425923</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10.51017</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.114655</v>
+      </c>
+      <c r="D7" s="3">
+        <v>88.886189999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>99.786829999999995</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.6653680000000003E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.99842229999999998</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6.5607490000000004E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3.0966879999999999E-2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>19.279319999999998</v>
+      </c>
+      <c r="K7" s="3">
+        <v>6.5590419999999997E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.82574029999999998</v>
+      </c>
+      <c r="M7" s="3">
+        <v>6.0177210000000002E-2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.063015</v>
+      </c>
+      <c r="O7" s="3">
+        <v>991.66020000000003</v>
+      </c>
+      <c r="P7" s="3">
+        <v>46.905100220000001</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-91.03597929</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45145.47625</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10.27835</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.0982339999999997</v>
+      </c>
+      <c r="D8" s="3">
+        <v>88.575509999999994</v>
+      </c>
+      <c r="E8" s="3">
+        <v>99.953620000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.6760210000000003E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.99843749999999998</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6.5042470000000005E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6.8550860000000005E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>19.118289999999998</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.20935580000000001</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.115661</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.14856050000000001</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.0632219999999999</v>
+      </c>
+      <c r="O8" s="3">
+        <v>991.65970000000004</v>
+      </c>
+      <c r="P8" s="3">
+        <v>46.905100220000001</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-91.03597929</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45145.476261574076</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10.250769999999999</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.0917310000000002</v>
+      </c>
+      <c r="D9" s="3">
+        <v>88.959850000000003</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100.43510000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.6993559999999997E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99844189999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6.5333849999999999E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7.0526149999999996E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>19.094519999999999</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.21717590000000001</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.1323570000000001</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.1536525</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.0630440000000001</v>
+      </c>
+      <c r="O9" s="3">
+        <v>991.65970000000004</v>
+      </c>
+      <c r="P9" s="3">
+        <v>46.905100220000001</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-91.03597929</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45145.476273148146</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10.223179999999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.0852269999999997</v>
+      </c>
+      <c r="D10" s="3">
+        <v>89.344189999999998</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100.9165</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.7226919999999999E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99844630000000001</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6.5625240000000001E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7.250144E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>19.07075</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.224996</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.1490530000000001</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.15874450000000001</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.0628660000000001</v>
+      </c>
+      <c r="O10" s="3">
+        <v>991.65970000000004</v>
+      </c>
+      <c r="P10" s="3">
+        <v>46.905100220000001</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-91.03597929</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45145.476284722223</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10.08564</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4.0733699999999997</v>
+      </c>
+      <c r="D11" s="3">
+        <v>89.327340000000007</v>
+      </c>
+      <c r="E11" s="3">
+        <v>101.04859999999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.7289919999999999E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99845870000000003</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6.5699229999999997E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.6612190000000003E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>18.935310000000001</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.39673580000000003</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.5418019999999999</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.27926529999999999</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1.0472520000000001</v>
+      </c>
+      <c r="O11" s="3">
+        <v>991.70339999999999</v>
+      </c>
+      <c r="P11" s="3">
+        <v>46.905100220000001</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-91.03597929</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45145.4762962963</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10.0725</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.0722139999999998</v>
+      </c>
+      <c r="D12" s="3">
+        <v>89.356089999999995</v>
+      </c>
+      <c r="E12" s="3">
+        <v>101.101</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.7315219999999998E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99845980000000001</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6.5717520000000001E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3.5583179999999999E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>18.92398</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.40914060000000002</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.5692999999999999</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.28768919999999998</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.0464199999999999</v>
+      </c>
+      <c r="O12" s="3">
+        <v>991.70569999999998</v>
+      </c>
+      <c r="P12" s="3">
+        <v>46.905100220000001</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-91.03597929</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45145.476307870369</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10.059369999999999</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4.0710559999999996</v>
+      </c>
+      <c r="D13" s="3">
+        <v>89.384829999999994</v>
+      </c>
+      <c r="E13" s="3">
+        <v>101.15349999999999</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.7340519999999997E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.99846089999999998</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6.5735799999999997E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3.455416E-2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>18.912659999999999</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.42154550000000002</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.5967979999999999</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.29611310000000002</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1.045587</v>
+      </c>
+      <c r="O13" s="3">
+        <v>991.70809999999994</v>
+      </c>
+      <c r="P13" s="3">
+        <v>46.905100220000001</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-91.03597929</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45145.476319444446</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10.01933</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4.1540439999999998</v>
+      </c>
+      <c r="D14" s="3">
+        <v>89.463809999999995</v>
+      </c>
+      <c r="E14" s="3">
+        <v>101.41459999999999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.7466050000000003E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.99848789999999998</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6.598743E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3.3122110000000003E-2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>18.832350000000002</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.77749020000000002</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2.419918</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.54662999999999995</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.0296050000000001</v>
+      </c>
+      <c r="O14" s="3">
+        <v>991.69970000000001</v>
+      </c>
+      <c r="P14" s="3">
+        <v>46.905100220000001</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-91.03597929</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45145.476331018515</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10.013640000000001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4.1581190000000001</v>
+      </c>
+      <c r="D15" s="3">
+        <v>89.474199999999996</v>
+      </c>
+      <c r="E15" s="3">
+        <v>101.43980000000001</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4.747817E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99848970000000004</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6.6007440000000001E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3.2289690000000003E-2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>18.824619999999999</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.800535</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2.4730810000000001</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.56283209999999995</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1.0283990000000001</v>
+      </c>
+      <c r="O15" s="3">
+        <v>991.7002</v>
+      </c>
+      <c r="P15" s="3">
+        <v>46.905100220000001</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-91.03597929</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45145.476342592592</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10.00794</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4.1621949999999996</v>
+      </c>
+      <c r="D16" s="3">
+        <v>89.484579999999994</v>
+      </c>
+      <c r="E16" s="3">
+        <v>101.4649</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.7490289999999998E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99849149999999998</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.6027440000000007E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3.1457260000000001E-2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>18.816890000000001</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.82357970000000003</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2.526243</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.57903420000000005</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1.027193</v>
+      </c>
+      <c r="O16" s="3">
+        <v>991.70069999999998</v>
+      </c>
+      <c r="P16" s="3">
+        <v>46.905100220000001</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-91.03597929</v>
+      </c>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A17" s="4">
+        <v>45145.476354166669</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9.9473629999999993</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4.3157550000000002</v>
+      </c>
+      <c r="D17" s="3">
+        <v>89.569040000000001</v>
+      </c>
+      <c r="E17" s="3">
+        <v>101.7833</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4.764318E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.6166649999999994E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>9.5648929999999993E-2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>18.76182</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.89491330000000002</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2.6905779999999999</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.62918669999999999</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1.027406</v>
+      </c>
+      <c r="O17" s="3">
+        <v>991.71749999999997</v>
+      </c>
+      <c r="P17" s="3">
+        <v>46.905100220000001</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-91.03597929</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="4">
+        <v>45145.476365740738</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9.9430049999999994</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4.3258279999999996</v>
+      </c>
+      <c r="D18" s="3">
+        <v>89.575839999999999</v>
+      </c>
+      <c r="E18" s="3">
+        <v>101.80710000000001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.7654639999999998E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.99850110000000003</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6.6180069999999994E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>9.9035830000000005E-2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>18.756879999999999</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.90701679999999996</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2.7185109999999999</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.63769629999999999</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1.027042</v>
+      </c>
+      <c r="O18" s="3">
+        <v>991.71820000000002</v>
+      </c>
+      <c r="P18" s="3">
+        <v>46.905100079999997</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-91.035963519999996</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="4">
+        <v>45145.476377314815</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9.9386449999999993</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4.3358990000000004</v>
+      </c>
+      <c r="D19" s="3">
+        <v>89.582639999999998</v>
+      </c>
+      <c r="E19" s="3">
+        <v>101.831</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.7666100000000003E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.99850220000000001</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6.6193509999999997E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.10242270000000001</v>
+      </c>
+      <c r="J19" s="3">
+        <v>18.751930000000002</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.9191203</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2.7464439999999999</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.6462059</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1.026678</v>
+      </c>
+      <c r="O19" s="3">
+        <v>991.71889999999996</v>
+      </c>
+      <c r="P19" s="3">
+        <v>46.905100079999997</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-91.035963519999996</v>
+      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4">
+        <v>45145.476388888892</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9.9707030000000003</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4.3754270000000002</v>
+      </c>
+      <c r="D20" s="3">
+        <v>89.625150000000005</v>
+      </c>
+      <c r="E20" s="3">
+        <v>101.9336</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.7715510000000003E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99850669999999997</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6.6258620000000004E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.22861980000000001</v>
+      </c>
+      <c r="J20" s="3">
+        <v>18.68299</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.62999830000000001</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2.0809760000000002</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.59333340000000001</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="O20" s="3">
+        <v>991.68399999999997</v>
+      </c>
+      <c r="P20" s="3">
+        <v>46.905100079999997</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-91.035963519999996</v>
+      </c>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4">
+        <v>45145.476400462961</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9.9709310000000002</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4.3810890000000002</v>
+      </c>
+      <c r="D21" s="3">
+        <v>89.629519999999999</v>
+      </c>
+      <c r="E21" s="3">
+        <v>101.9468</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.772183E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.99850709999999998</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6.6265610000000003E-2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.2367688</v>
+      </c>
+      <c r="J21" s="3">
+        <v>18.67794</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.61667360000000004</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2.0503130000000001</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.5919584</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="O21" s="3">
+        <v>991.68259999999998</v>
+      </c>
+      <c r="P21" s="3">
+        <v>46.905100079999997</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-91.035963519999996</v>
+      </c>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="4">
+        <v>45145.476412037038</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9.9711580000000009</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4.3867500000000001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>89.633880000000005</v>
+      </c>
+      <c r="E22" s="3">
+        <v>101.9599</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4.7728140000000002E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.99850760000000005</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6.6272590000000006E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.24491779999999999</v>
+      </c>
+      <c r="J22" s="3">
+        <v>18.672889999999999</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.60334900000000002</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2.0196489999999998</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.59058339999999998</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="O22" s="3">
+        <v>991.68110000000001</v>
+      </c>
+      <c r="P22" s="3">
+        <v>46.905100079999997</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>-91.035963519999996</v>
+      </c>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>45145.476180555554</v>
+        <v>45145.476423611108</v>
       </c>
       <c r="B23" s="3">
-        <v>11.28485</v>
+        <v>9.9932759999999998</v>
       </c>
       <c r="C23" s="3">
-        <v>4.3961389999999998</v>
+        <v>4.4426370000000004</v>
       </c>
       <c r="D23" s="3">
-        <v>62.195189999999997</v>
+        <v>89.715090000000004</v>
       </c>
       <c r="E23" s="3">
-        <v>68.820260000000005</v>
+        <v>102.10469999999999</v>
       </c>
       <c r="F23" s="3">
-        <v>3.1870570000000001E-2</v>
+        <v>4.779796E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>0.99823720000000005</v>
+        <v>0.99851239999999997</v>
       </c>
       <c r="H23" s="3">
-        <v>4.4733170000000003E-2</v>
+        <v>6.6368040000000003E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>3.4754720000000003E-2</v>
+        <v>6.6276290000000002E-2</v>
       </c>
       <c r="J23" s="3">
-        <v>20.035620000000002</v>
+        <v>18.65558</v>
       </c>
       <c r="K23" s="3">
-        <v>6.5391969999999994E-2</v>
+        <v>1.6028450000000001</v>
       </c>
       <c r="L23" s="3">
-        <v>0.77900499999999995</v>
+        <v>4.3250970000000004</v>
       </c>
       <c r="M23" s="3">
-        <v>4.5975130000000003E-2</v>
+        <v>1.143588</v>
       </c>
       <c r="N23" s="3">
-        <v>1.074384</v>
+        <v>1.034915</v>
       </c>
       <c r="O23" s="3">
-        <v>991.65650000000005</v>
+        <v>991.65419999999995</v>
       </c>
       <c r="P23" s="3">
-        <v>46.905101289999998</v>
+        <v>46.905100079999997</v>
       </c>
       <c r="Q23" s="3">
-        <v>-91.035993230000003</v>
+        <v>-91.035963519999996</v>
       </c>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>45145.47619212963</v>
+        <v>45145.476435185185</v>
       </c>
       <c r="B24" s="3">
-        <v>11.27393</v>
+        <v>9.9950910000000004</v>
       </c>
       <c r="C24" s="3">
-        <v>4.3952590000000002</v>
+        <v>4.4466840000000003</v>
       </c>
       <c r="D24" s="3">
-        <v>65.547200000000004</v>
+        <v>89.720489999999998</v>
       </c>
       <c r="E24" s="3">
-        <v>72.529330000000002</v>
+        <v>102.1151</v>
       </c>
       <c r="F24" s="3">
-        <v>3.3588229999999997E-2</v>
+        <v>4.7802999999999998E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99823919999999999</v>
+        <v>0.99851279999999998</v>
       </c>
       <c r="H24" s="3">
-        <v>4.7144060000000002E-2</v>
+        <v>6.6374840000000004E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>3.381957E-2</v>
+        <v>5.9689029999999997E-2</v>
       </c>
       <c r="J24" s="3">
-        <v>20.035419999999998</v>
+        <v>18.653020000000001</v>
       </c>
       <c r="K24" s="3">
-        <v>6.405276E-2</v>
+        <v>1.6496729999999999</v>
       </c>
       <c r="L24" s="3">
-        <v>0.77610840000000003</v>
+        <v>4.4331440000000004</v>
       </c>
       <c r="M24" s="3">
-        <v>4.5033570000000002E-2</v>
+        <v>1.1719440000000001</v>
       </c>
       <c r="N24" s="3">
-        <v>1.0733459999999999</v>
+        <v>1.0353349999999999</v>
       </c>
       <c r="O24" s="3">
-        <v>991.65750000000003</v>
+        <v>991.65200000000004</v>
       </c>
       <c r="P24" s="3">
-        <v>46.905101289999998</v>
+        <v>46.905107149999999</v>
       </c>
       <c r="Q24" s="3">
-        <v>-91.035993230000003</v>
+        <v>-91.035953899999996</v>
       </c>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>45145.476203703707</v>
+        <v>45145.476446759261</v>
       </c>
       <c r="B25" s="3">
-        <v>11.26301</v>
+        <v>9.9969070000000002</v>
       </c>
       <c r="C25" s="3">
-        <v>4.3943789999999998</v>
+        <v>4.4507320000000004</v>
       </c>
       <c r="D25" s="3">
-        <v>68.899209999999997</v>
+        <v>89.725880000000004</v>
       </c>
       <c r="E25" s="3">
-        <v>76.238399999999999</v>
+        <v>102.12560000000001</v>
       </c>
       <c r="F25" s="3">
-        <v>3.5305900000000001E-2</v>
+        <v>4.7808040000000003E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>0.9982413</v>
+        <v>0.99851319999999999</v>
       </c>
       <c r="H25" s="3">
-        <v>4.9554960000000002E-2</v>
+        <v>6.6381629999999997E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>3.2884419999999998E-2</v>
+        <v>5.310177E-2</v>
       </c>
       <c r="J25" s="3">
-        <v>20.035219999999999</v>
+        <v>18.650449999999999</v>
       </c>
       <c r="K25" s="3">
-        <v>6.2713560000000002E-2</v>
+        <v>1.696501</v>
       </c>
       <c r="L25" s="3">
-        <v>0.77321189999999995</v>
+        <v>4.5411910000000004</v>
       </c>
       <c r="M25" s="3">
-        <v>4.4092020000000003E-2</v>
+        <v>1.2003010000000001</v>
       </c>
       <c r="N25" s="3">
-        <v>1.072309</v>
+        <v>1.0357559999999999</v>
       </c>
       <c r="O25" s="3">
-        <v>991.6585</v>
+        <v>991.64980000000003</v>
       </c>
       <c r="P25" s="3">
-        <v>46.905101289999998</v>
+        <v>46.905107149999999</v>
       </c>
       <c r="Q25" s="3">
-        <v>-91.035993230000003</v>
+        <v>-91.035953899999996</v>
       </c>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>45145.476215277777</v>
+        <v>45145.476458333331</v>
       </c>
       <c r="B26" s="3">
-        <v>10.58914</v>
+        <v>10.0526</v>
       </c>
       <c r="C26" s="3">
-        <v>4.140504</v>
+        <v>4.5694100000000004</v>
       </c>
       <c r="D26" s="3">
-        <v>84.392179999999996</v>
+        <v>89.683239999999998</v>
       </c>
       <c r="E26" s="3">
-        <v>94.677070000000001</v>
+        <v>102.254</v>
       </c>
       <c r="F26" s="3">
-        <v>4.4245029999999998E-2</v>
+        <v>4.7869059999999998E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>0.99840340000000005</v>
+        <v>0.99852850000000004</v>
       </c>
       <c r="H26" s="3">
-        <v>6.2214779999999997E-2</v>
+        <v>6.6465079999999996E-2</v>
       </c>
       <c r="I26" s="3">
-        <v>3.115499E-2</v>
+        <v>0.20974390000000001</v>
       </c>
       <c r="J26" s="3">
-        <v>19.351800000000001</v>
+        <v>18.564330000000002</v>
       </c>
       <c r="K26" s="3">
-        <v>6.5958580000000003E-2</v>
+        <v>3.0452110000000001</v>
       </c>
       <c r="L26" s="3">
-        <v>0.82196990000000003</v>
+        <v>7.6523960000000004</v>
       </c>
       <c r="M26" s="3">
-        <v>5.9090770000000001E-2</v>
+        <v>2.1447470000000002</v>
       </c>
       <c r="N26" s="3">
-        <v>1.0645770000000001</v>
+        <v>1.0198609999999999</v>
       </c>
       <c r="O26" s="3">
-        <v>991.65890000000002</v>
+        <v>991.66800000000001</v>
       </c>
       <c r="P26" s="3">
-        <v>46.905101289999998</v>
+        <v>46.905107149999999</v>
       </c>
       <c r="Q26" s="3">
-        <v>-91.035993230000003</v>
+        <v>-91.035953899999996</v>
       </c>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>45145.476226851853</v>
+        <v>45145.476469907408</v>
       </c>
       <c r="B27" s="3">
-        <v>10.549659999999999</v>
+        <v>10.056100000000001</v>
       </c>
       <c r="C27" s="3">
-        <v>4.1275789999999999</v>
+        <v>4.5771509999999997</v>
       </c>
       <c r="D27" s="3">
-        <v>86.639179999999996</v>
+        <v>89.682850000000002</v>
       </c>
       <c r="E27" s="3">
-        <v>97.231949999999998</v>
+        <v>102.26439999999999</v>
       </c>
       <c r="F27" s="3">
-        <v>4.5449360000000001E-2</v>
+        <v>4.7874029999999998E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>0.99841279999999999</v>
+        <v>0.99852940000000001</v>
       </c>
       <c r="H27" s="3">
-        <v>6.3911129999999997E-2</v>
+        <v>6.6471840000000004E-2</v>
       </c>
       <c r="I27" s="3">
-        <v>3.1060939999999999E-2</v>
+        <v>0.2142992</v>
       </c>
       <c r="J27" s="3">
-        <v>19.315560000000001</v>
+        <v>18.55922</v>
       </c>
       <c r="K27" s="3">
-        <v>6.57745E-2</v>
+        <v>3.1399249999999999</v>
       </c>
       <c r="L27" s="3">
-        <v>0.82385520000000001</v>
+        <v>7.8708790000000004</v>
       </c>
       <c r="M27" s="3">
-        <v>5.9633989999999998E-2</v>
+        <v>2.2079119999999999</v>
       </c>
       <c r="N27" s="3">
-        <v>1.063796</v>
+        <v>1.019185</v>
       </c>
       <c r="O27" s="3">
-        <v>991.65949999999998</v>
+        <v>991.66840000000002</v>
       </c>
       <c r="P27" s="3">
-        <v>46.905101289999998</v>
+        <v>46.905114300000001</v>
       </c>
       <c r="Q27" s="3">
-        <v>-91.035993230000003</v>
+        <v>-91.035942860000006</v>
       </c>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>45145.476238425923</v>
+        <v>45145.476481481484</v>
       </c>
       <c r="B28" s="3">
-        <v>10.51017</v>
+        <v>10.05959</v>
       </c>
       <c r="C28" s="3">
-        <v>4.114655</v>
+        <v>4.584892</v>
       </c>
       <c r="D28" s="3">
-        <v>88.886189999999999</v>
+        <v>89.682450000000003</v>
       </c>
       <c r="E28" s="3">
-        <v>99.786829999999995</v>
+        <v>102.2748</v>
       </c>
       <c r="F28" s="3">
-        <v>4.6653680000000003E-2</v>
+        <v>4.7878990000000003E-2</v>
       </c>
       <c r="G28" s="3">
-        <v>0.99842229999999998</v>
+        <v>0.99853029999999998</v>
       </c>
       <c r="H28" s="3">
-        <v>6.5607490000000004E-2</v>
+        <v>6.6478599999999999E-2</v>
       </c>
       <c r="I28" s="3">
-        <v>3.0966879999999999E-2</v>
+        <v>0.21885450000000001</v>
       </c>
       <c r="J28" s="3">
-        <v>19.279319999999998</v>
+        <v>18.554120000000001</v>
       </c>
       <c r="K28" s="3">
-        <v>6.5590419999999997E-2</v>
+        <v>3.2346400000000002</v>
       </c>
       <c r="L28" s="3">
-        <v>0.82574029999999998</v>
+        <v>8.0893630000000005</v>
       </c>
       <c r="M28" s="3">
-        <v>6.0177210000000002E-2</v>
+        <v>2.271077</v>
       </c>
       <c r="N28" s="3">
-        <v>1.063015</v>
+        <v>1.018508</v>
       </c>
       <c r="O28" s="3">
-        <v>991.66020000000003</v>
+        <v>991.66880000000003</v>
       </c>
       <c r="P28" s="3">
-        <v>46.905100220000001</v>
+        <v>46.905114300000001</v>
       </c>
       <c r="Q28" s="3">
-        <v>-91.03597929</v>
+        <v>-91.035942860000006</v>
       </c>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>45145.47625</v>
+        <v>45145.476493055554</v>
       </c>
       <c r="B29" s="3">
-        <v>10.27835</v>
+        <v>9.9315990000000003</v>
       </c>
       <c r="C29" s="3">
-        <v>4.0982339999999997</v>
+        <v>4.5510950000000001</v>
       </c>
       <c r="D29" s="3">
-        <v>88.575509999999994</v>
+        <v>89.870339999999999</v>
       </c>
       <c r="E29" s="3">
-        <v>99.953620000000001</v>
+        <v>102.6593</v>
       </c>
       <c r="F29" s="3">
-        <v>4.6760210000000003E-2</v>
+        <v>4.8064170000000003E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>0.99843749999999998</v>
+        <v>0.99864379999999997</v>
       </c>
       <c r="H29" s="3">
-        <v>6.5042470000000005E-2</v>
+        <v>6.1916590000000001E-2</v>
       </c>
       <c r="I29" s="3">
-        <v>6.8550860000000005E-2</v>
+        <v>0.32762150000000001</v>
       </c>
       <c r="J29" s="3">
-        <v>19.118289999999998</v>
+        <v>18.477879999999999</v>
       </c>
       <c r="K29" s="3">
-        <v>0.20935580000000001</v>
+        <v>5.6701600000000001</v>
       </c>
       <c r="L29" s="3">
-        <v>1.115661</v>
+        <v>13.70429</v>
       </c>
       <c r="M29" s="3">
-        <v>0.14856050000000001</v>
+        <v>3.9865189999999999</v>
       </c>
       <c r="N29" s="3">
-        <v>1.0632219999999999</v>
+        <v>1.0183690000000001</v>
       </c>
       <c r="O29" s="3">
-        <v>991.65970000000004</v>
+        <v>991.678</v>
       </c>
       <c r="P29" s="3">
-        <v>46.905100220000001</v>
+        <v>46.905114300000001</v>
       </c>
       <c r="Q29" s="3">
-        <v>-91.03597929</v>
+        <v>-91.035942860000006</v>
       </c>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>45145.476261574076</v>
+        <v>45145.476504629631</v>
       </c>
       <c r="B30" s="3">
-        <v>10.250769999999999</v>
+        <v>9.9261520000000001</v>
       </c>
       <c r="C30" s="3">
-        <v>4.0917310000000002</v>
+        <v>4.5521260000000003</v>
       </c>
       <c r="D30" s="3">
-        <v>88.959850000000003</v>
+        <v>89.879390000000001</v>
       </c>
       <c r="E30" s="3">
-        <v>100.43510000000001</v>
+        <v>102.6828</v>
       </c>
       <c r="F30" s="3">
-        <v>4.6993559999999997E-2</v>
+        <v>4.807546E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>0.99844189999999999</v>
+        <v>0.99865009999999999</v>
       </c>
       <c r="H30" s="3">
-        <v>6.5333849999999999E-2</v>
+        <v>6.1677389999999999E-2</v>
       </c>
       <c r="I30" s="3">
-        <v>7.0526149999999996E-2</v>
+        <v>0.3368815</v>
       </c>
       <c r="J30" s="3">
-        <v>19.094519999999999</v>
+        <v>18.471810000000001</v>
       </c>
       <c r="K30" s="3">
-        <v>0.21717590000000001</v>
+        <v>5.8309699999999998</v>
       </c>
       <c r="L30" s="3">
-        <v>1.1323570000000001</v>
+        <v>14.07507</v>
       </c>
       <c r="M30" s="3">
-        <v>0.1536525</v>
+        <v>4.0995799999999996</v>
       </c>
       <c r="N30" s="3">
-        <v>1.0630440000000001</v>
+        <v>1.0180020000000001</v>
       </c>
       <c r="O30" s="3">
-        <v>991.65970000000004</v>
+        <v>991.6789</v>
       </c>
       <c r="P30" s="3">
-        <v>46.905100220000001</v>
+        <v>46.905114300000001</v>
       </c>
       <c r="Q30" s="3">
-        <v>-91.03597929</v>
+        <v>-91.035942860000006</v>
       </c>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45145.476273148146</v>
+        <v>45145.4765162037</v>
       </c>
       <c r="B31" s="3">
-        <v>10.223179999999999</v>
+        <v>10.011189999999999</v>
       </c>
       <c r="C31" s="3">
-        <v>4.0852269999999997</v>
+        <v>4.6421510000000001</v>
       </c>
       <c r="D31" s="3">
-        <v>89.344189999999998</v>
+        <v>76.522570000000002</v>
       </c>
       <c r="E31" s="3">
-        <v>100.9165</v>
+        <v>91.927949999999996</v>
       </c>
       <c r="F31" s="3">
-        <v>4.7226919999999999E-2</v>
+        <v>4.2812120000000002E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>0.99844630000000001</v>
+        <v>0.99895699999999998</v>
       </c>
       <c r="H31" s="3">
-        <v>6.5625240000000001E-2</v>
+        <v>5.9107199999999999E-2</v>
       </c>
       <c r="I31" s="3">
-        <v>7.250144E-2</v>
+        <v>0.37493660000000001</v>
       </c>
       <c r="J31" s="3">
-        <v>19.07075</v>
+        <v>17.95026</v>
       </c>
       <c r="K31" s="3">
-        <v>0.224996</v>
+        <v>6.7803300000000002</v>
       </c>
       <c r="L31" s="3">
-        <v>1.1490530000000001</v>
+        <v>16.259779999999999</v>
       </c>
       <c r="M31" s="3">
-        <v>0.15874450000000001</v>
+        <v>4.7670459999999997</v>
       </c>
       <c r="N31" s="3">
-        <v>1.0628660000000001</v>
+        <v>1.018</v>
       </c>
       <c r="O31" s="3">
-        <v>991.65970000000004</v>
+        <v>991.65409999999997</v>
       </c>
       <c r="P31" s="3">
-        <v>46.905100220000001</v>
+        <v>46.905114300000001</v>
       </c>
       <c r="Q31" s="3">
-        <v>-91.03597929</v>
+        <v>-91.035942860000006</v>
       </c>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>45145.476284722223</v>
+        <v>45145.476527777777</v>
       </c>
       <c r="B32" s="3">
-        <v>10.08564</v>
+        <v>10.01337</v>
       </c>
       <c r="C32" s="3">
-        <v>4.0733699999999997</v>
+        <v>4.6465779999999999</v>
       </c>
       <c r="D32" s="3">
-        <v>89.327340000000007</v>
+        <v>75.770150000000001</v>
       </c>
       <c r="E32" s="3">
-        <v>101.04859999999999</v>
+        <v>91.326970000000003</v>
       </c>
       <c r="F32" s="3">
-        <v>4.7289919999999999E-2</v>
+        <v>4.2517949999999999E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>0.99845870000000003</v>
+        <v>0.9989768</v>
       </c>
       <c r="H32" s="3">
-        <v>6.5699229999999997E-2</v>
+        <v>5.8867320000000001E-2</v>
       </c>
       <c r="I32" s="3">
-        <v>3.6612190000000003E-2</v>
+        <v>0.37926989999999999</v>
       </c>
       <c r="J32" s="3">
-        <v>18.935310000000001</v>
+        <v>17.919139999999999</v>
       </c>
       <c r="K32" s="3">
-        <v>0.39673580000000003</v>
+        <v>6.8849390000000001</v>
       </c>
       <c r="L32" s="3">
-        <v>1.5418019999999999</v>
+        <v>16.500720000000001</v>
       </c>
       <c r="M32" s="3">
-        <v>0.27926529999999999</v>
+        <v>4.8405940000000003</v>
       </c>
       <c r="N32" s="3">
-        <v>1.0472520000000001</v>
+        <v>1.018</v>
       </c>
       <c r="O32" s="3">
-        <v>991.70339999999999</v>
+        <v>991.65279999999996</v>
       </c>
       <c r="P32" s="3">
-        <v>46.905100220000001</v>
+        <v>46.905114300000001</v>
       </c>
       <c r="Q32" s="3">
-        <v>-91.03597929</v>
+        <v>-91.035942860000006</v>
       </c>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>45145.4762962963</v>
+        <v>45145.476539351854</v>
       </c>
       <c r="B33" s="3">
-        <v>10.0725</v>
+        <v>10.015549999999999</v>
       </c>
       <c r="C33" s="3">
-        <v>4.0722139999999998</v>
+        <v>4.6510040000000004</v>
       </c>
       <c r="D33" s="3">
-        <v>89.356089999999995</v>
+        <v>75.01773</v>
       </c>
       <c r="E33" s="3">
-        <v>101.101</v>
+        <v>90.725989999999996</v>
       </c>
       <c r="F33" s="3">
-        <v>4.7315219999999998E-2</v>
+        <v>4.2223770000000001E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>0.99845980000000001</v>
+        <v>0.99899640000000001</v>
       </c>
       <c r="H33" s="3">
-        <v>6.5717520000000001E-2</v>
+        <v>5.8627440000000003E-2</v>
       </c>
       <c r="I33" s="3">
-        <v>3.5583179999999999E-2</v>
+        <v>0.38360329999999998</v>
       </c>
       <c r="J33" s="3">
-        <v>18.92398</v>
+        <v>17.888010000000001</v>
       </c>
       <c r="K33" s="3">
-        <v>0.40914060000000002</v>
+        <v>6.989547</v>
       </c>
       <c r="L33" s="3">
-        <v>1.5692999999999999</v>
+        <v>16.74166</v>
       </c>
       <c r="M33" s="3">
-        <v>0.28768919999999998</v>
+        <v>4.9141409999999999</v>
       </c>
       <c r="N33" s="3">
-        <v>1.0464199999999999</v>
+        <v>1.018</v>
       </c>
       <c r="O33" s="3">
-        <v>991.70569999999998</v>
+        <v>991.65160000000003</v>
       </c>
       <c r="P33" s="3">
-        <v>46.905100220000001</v>
+        <v>46.905114300000001</v>
       </c>
       <c r="Q33" s="3">
-        <v>-91.03597929</v>
+        <v>-91.035942860000006</v>
       </c>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>45145.476307870369</v>
+        <v>45145.476550925923</v>
       </c>
       <c r="B34" s="3">
-        <v>10.059369999999999</v>
+        <v>9.8758490000000005</v>
       </c>
       <c r="C34" s="3">
-        <v>4.0710559999999996</v>
+        <v>4.8520490000000001</v>
       </c>
       <c r="D34" s="3">
-        <v>89.384829999999994</v>
+        <v>70.755470000000003</v>
       </c>
       <c r="E34" s="3">
-        <v>101.15349999999999</v>
+        <v>89.114419999999996</v>
       </c>
       <c r="F34" s="3">
-        <v>4.7340519999999997E-2</v>
+        <v>4.1380989999999999E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>0.99846089999999998</v>
+        <v>0.99925050000000004</v>
       </c>
       <c r="H34" s="3">
-        <v>6.5735799999999997E-2</v>
+        <v>5.7714120000000001E-2</v>
       </c>
       <c r="I34" s="3">
-        <v>3.455416E-2</v>
+        <v>0.32622839999999997</v>
       </c>
       <c r="J34" s="3">
-        <v>18.912659999999999</v>
+        <v>14.43355</v>
       </c>
       <c r="K34" s="3">
-        <v>0.42154550000000002</v>
+        <v>8.0282959999999992</v>
       </c>
       <c r="L34" s="3">
-        <v>1.5967979999999999</v>
+        <v>19.128419999999998</v>
       </c>
       <c r="M34" s="3">
-        <v>0.29611310000000002</v>
+        <v>5.6444539999999996</v>
       </c>
       <c r="N34" s="3">
-        <v>1.045587</v>
+        <v>1.02559</v>
       </c>
       <c r="O34" s="3">
-        <v>991.70809999999994</v>
+        <v>991.69309999999996</v>
       </c>
       <c r="P34" s="3">
-        <v>46.905100220000001</v>
+        <v>46.905120959999998</v>
       </c>
       <c r="Q34" s="3">
-        <v>-91.03597929</v>
+        <v>-91.035932880000004</v>
       </c>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>45145.476319444446</v>
+        <v>45145.4765625</v>
       </c>
       <c r="B35" s="3">
-        <v>10.01933</v>
+        <v>9.8699929999999991</v>
       </c>
       <c r="C35" s="3">
-        <v>4.1540439999999998</v>
+        <v>4.8654479999999998</v>
       </c>
       <c r="D35" s="3">
-        <v>89.463809999999995</v>
+        <v>70.213610000000003</v>
       </c>
       <c r="E35" s="3">
-        <v>101.41459999999999</v>
+        <v>88.780619999999999</v>
       </c>
       <c r="F35" s="3">
-        <v>4.7466050000000003E-2</v>
+        <v>4.1214580000000001E-2</v>
       </c>
       <c r="G35" s="3">
-        <v>0.99848789999999998</v>
+        <v>0.99927169999999998</v>
       </c>
       <c r="H35" s="3">
-        <v>6.598743E-2</v>
+        <v>5.76085E-2</v>
       </c>
       <c r="I35" s="3">
-        <v>3.3122110000000003E-2</v>
+        <v>0.32375999999999999</v>
       </c>
       <c r="J35" s="3">
-        <v>18.832350000000002</v>
+        <v>14.22697</v>
       </c>
       <c r="K35" s="3">
-        <v>0.77749020000000002</v>
+        <v>8.1062180000000001</v>
       </c>
       <c r="L35" s="3">
-        <v>2.419918</v>
+        <v>19.30753</v>
       </c>
       <c r="M35" s="3">
-        <v>0.54662999999999995</v>
+        <v>5.6992390000000004</v>
       </c>
       <c r="N35" s="3">
-        <v>1.0296050000000001</v>
+        <v>1.026019</v>
       </c>
       <c r="O35" s="3">
-        <v>991.69970000000001</v>
+        <v>991.69479999999999</v>
       </c>
       <c r="P35" s="3">
-        <v>46.905100220000001</v>
+        <v>46.905120959999998</v>
       </c>
       <c r="Q35" s="3">
-        <v>-91.03597929</v>
+        <v>-91.035932880000004</v>
       </c>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>45145.476331018515</v>
+        <v>45145.476574074077</v>
       </c>
       <c r="B36" s="3">
-        <v>10.013640000000001</v>
+        <v>9.8641380000000005</v>
       </c>
       <c r="C36" s="3">
-        <v>4.1581190000000001</v>
+        <v>4.8788479999999996</v>
       </c>
       <c r="D36" s="3">
-        <v>89.474199999999996</v>
+        <v>69.671750000000003</v>
       </c>
       <c r="E36" s="3">
-        <v>101.43980000000001</v>
+        <v>88.446820000000002</v>
       </c>
       <c r="F36" s="3">
-        <v>4.747817E-2</v>
+        <v>4.1048170000000002E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>0.99848970000000004</v>
+        <v>0.99929290000000004</v>
       </c>
       <c r="H36" s="3">
-        <v>6.6007440000000001E-2</v>
+        <v>5.7502879999999999E-2</v>
       </c>
       <c r="I36" s="3">
-        <v>3.2289690000000003E-2</v>
+        <v>0.32129150000000001</v>
       </c>
       <c r="J36" s="3">
-        <v>18.824619999999999</v>
+        <v>14.020379999999999</v>
       </c>
       <c r="K36" s="3">
-        <v>0.800535</v>
+        <v>8.1841419999999996</v>
       </c>
       <c r="L36" s="3">
-        <v>2.4730810000000001</v>
+        <v>19.486640000000001</v>
       </c>
       <c r="M36" s="3">
-        <v>0.56283209999999995</v>
+        <v>5.7540250000000004</v>
       </c>
       <c r="N36" s="3">
-        <v>1.0283990000000001</v>
+        <v>1.0264470000000001</v>
       </c>
       <c r="O36" s="3">
-        <v>991.7002</v>
+        <v>991.69659999999999</v>
       </c>
       <c r="P36" s="3">
-        <v>46.905100220000001</v>
+        <v>46.905120959999998</v>
       </c>
       <c r="Q36" s="3">
-        <v>-91.03597929</v>
+        <v>-91.035932880000004</v>
       </c>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>45145.476342592592</v>
+        <v>45145.476585648146</v>
       </c>
       <c r="B37" s="3">
-        <v>10.00794</v>
+        <v>10.06378</v>
       </c>
       <c r="C37" s="3">
-        <v>4.1621949999999996</v>
+        <v>4.9174119999999997</v>
       </c>
       <c r="D37" s="3">
-        <v>89.484579999999994</v>
+        <v>67.353620000000006</v>
       </c>
       <c r="E37" s="3">
-        <v>101.4649</v>
+        <v>87.733289999999997</v>
       </c>
       <c r="F37" s="3">
-        <v>4.7490289999999998E-2</v>
+        <v>4.065266E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>0.99849149999999998</v>
+        <v>0.99953270000000005</v>
       </c>
       <c r="H37" s="3">
-        <v>6.6027440000000007E-2</v>
+        <v>5.762743E-2</v>
       </c>
       <c r="I37" s="3">
-        <v>3.1457260000000001E-2</v>
+        <v>0.37822339999999999</v>
       </c>
       <c r="J37" s="3">
-        <v>18.816890000000001</v>
+        <v>12.91361</v>
       </c>
       <c r="K37" s="3">
-        <v>0.82357970000000003</v>
+        <v>9.4603590000000004</v>
       </c>
       <c r="L37" s="3">
-        <v>2.526243</v>
+        <v>22.436509999999998</v>
       </c>
       <c r="M37" s="3">
-        <v>0.57903420000000005</v>
+        <v>6.651294</v>
       </c>
       <c r="N37" s="3">
-        <v>1.027193</v>
+        <v>1.0190570000000001</v>
       </c>
       <c r="O37" s="3">
-        <v>991.70069999999998</v>
+        <v>991.68939999999998</v>
       </c>
       <c r="P37" s="3">
-        <v>46.905100220000001</v>
+        <v>46.905120959999998</v>
       </c>
       <c r="Q37" s="3">
-        <v>-91.03597929</v>
+        <v>-91.035932880000004</v>
       </c>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>45145.476354166669</v>
+        <v>45145.476597222223</v>
       </c>
       <c r="B38" s="3">
-        <v>9.9473629999999993</v>
+        <v>10.071770000000001</v>
       </c>
       <c r="C38" s="3">
-        <v>4.3157550000000002</v>
+        <v>4.9240680000000001</v>
       </c>
       <c r="D38" s="3">
-        <v>89.569040000000001</v>
+        <v>67.134460000000004</v>
       </c>
       <c r="E38" s="3">
-        <v>101.7833</v>
+        <v>87.662610000000001</v>
       </c>
       <c r="F38" s="3">
-        <v>4.764318E-2</v>
+        <v>4.0614240000000003E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>0.99850000000000005</v>
+        <v>0.99955170000000004</v>
       </c>
       <c r="H38" s="3">
-        <v>6.6166649999999994E-2</v>
+        <v>5.7615180000000002E-2</v>
       </c>
       <c r="I38" s="3">
-        <v>9.5648929999999993E-2</v>
+        <v>0.38009910000000002</v>
       </c>
       <c r="J38" s="3">
-        <v>18.76182</v>
+        <v>12.77378</v>
       </c>
       <c r="K38" s="3">
-        <v>0.89491330000000002</v>
+        <v>9.5548789999999997</v>
       </c>
       <c r="L38" s="3">
-        <v>2.6905779999999999</v>
+        <v>22.654669999999999</v>
       </c>
       <c r="M38" s="3">
-        <v>0.62918669999999999</v>
+        <v>6.7177490000000004</v>
       </c>
       <c r="N38" s="3">
-        <v>1.027406</v>
+        <v>1.0188140000000001</v>
       </c>
       <c r="O38" s="3">
-        <v>991.71749999999997</v>
+        <v>991.68989999999997</v>
       </c>
       <c r="P38" s="3">
-        <v>46.905100220000001</v>
+        <v>46.905120959999998</v>
       </c>
       <c r="Q38" s="3">
-        <v>-91.03597929</v>
+        <v>-91.035932880000004</v>
       </c>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>45145.476365740738</v>
+        <v>45145.4766087963</v>
       </c>
       <c r="B39" s="3">
-        <v>9.9430049999999994</v>
+        <v>10.07977</v>
       </c>
       <c r="C39" s="3">
-        <v>4.3258279999999996</v>
+        <v>4.9307259999999999</v>
       </c>
       <c r="D39" s="3">
-        <v>89.575839999999999</v>
+        <v>66.915300000000002</v>
       </c>
       <c r="E39" s="3">
-        <v>101.80710000000001</v>
+        <v>87.591930000000005</v>
       </c>
       <c r="F39" s="3">
-        <v>4.7654639999999998E-2</v>
+        <v>4.0575840000000002E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>0.99850110000000003</v>
+        <v>0.99957079999999998</v>
       </c>
       <c r="H39" s="3">
-        <v>6.6180069999999994E-2</v>
+        <v>5.7602929999999997E-2</v>
       </c>
       <c r="I39" s="3">
-        <v>9.9035830000000005E-2</v>
+        <v>0.3819748</v>
       </c>
       <c r="J39" s="3">
-        <v>18.756879999999999</v>
+        <v>12.633940000000001</v>
       </c>
       <c r="K39" s="3">
-        <v>0.90701679999999996</v>
+        <v>9.6494</v>
       </c>
       <c r="L39" s="3">
-        <v>2.7185109999999999</v>
+        <v>22.87283</v>
       </c>
       <c r="M39" s="3">
-        <v>0.63769629999999999</v>
+        <v>6.7842029999999998</v>
       </c>
       <c r="N39" s="3">
-        <v>1.027042</v>
+        <v>1.0185709999999999</v>
       </c>
       <c r="O39" s="3">
-        <v>991.71820000000002</v>
+        <v>991.69039999999995</v>
       </c>
       <c r="P39" s="3">
-        <v>46.905100079999997</v>
+        <v>46.905120959999998</v>
       </c>
       <c r="Q39" s="3">
-        <v>-91.035963519999996</v>
+        <v>-91.035932880000004</v>
       </c>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>45145.476377314815</v>
+        <v>45145.476620370369</v>
       </c>
       <c r="B40" s="3">
-        <v>9.9386449999999993</v>
+        <v>10.087759999999999</v>
       </c>
       <c r="C40" s="3">
-        <v>4.3358990000000004</v>
+        <v>4.9373829999999996</v>
       </c>
       <c r="D40" s="3">
-        <v>89.582639999999998</v>
+        <v>66.69614</v>
       </c>
       <c r="E40" s="3">
-        <v>101.831</v>
+        <v>87.521259999999998</v>
       </c>
       <c r="F40" s="3">
-        <v>4.7666100000000003E-2</v>
+        <v>4.0537429999999999E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>0.99850220000000001</v>
+        <v>0.99958979999999997</v>
       </c>
       <c r="H40" s="3">
-        <v>6.6193509999999997E-2</v>
+        <v>5.759069E-2</v>
       </c>
       <c r="I40" s="3">
-        <v>0.10242270000000001</v>
+        <v>0.38385049999999998</v>
       </c>
       <c r="J40" s="3">
-        <v>18.751930000000002</v>
+        <v>12.4941</v>
       </c>
       <c r="K40" s="3">
-        <v>0.9191203</v>
+        <v>9.743919</v>
       </c>
       <c r="L40" s="3">
-        <v>2.7464439999999999</v>
+        <v>23.090990000000001</v>
       </c>
       <c r="M40" s="3">
-        <v>0.6462059</v>
+        <v>6.850657</v>
       </c>
       <c r="N40" s="3">
-        <v>1.026678</v>
+        <v>1.0183279999999999</v>
       </c>
       <c r="O40" s="3">
-        <v>991.71889999999996</v>
+        <v>991.69100000000003</v>
       </c>
       <c r="P40" s="3">
-        <v>46.905100079999997</v>
+        <v>46.905120959999998</v>
       </c>
       <c r="Q40" s="3">
-        <v>-91.035963519999996</v>
+        <v>-91.035932880000004</v>
       </c>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>45145.476388888892</v>
+        <v>45145.476631944446</v>
       </c>
       <c r="B41" s="3">
-        <v>9.9707030000000003</v>
+        <v>9.7077829999999992</v>
       </c>
       <c r="C41" s="3">
-        <v>4.3754270000000002</v>
+        <v>5.1226510000000003</v>
       </c>
       <c r="D41" s="3">
-        <v>89.625150000000005</v>
+        <v>65.801900000000003</v>
       </c>
       <c r="E41" s="3">
-        <v>101.9336</v>
+        <v>88.928089999999997</v>
       </c>
       <c r="F41" s="3">
-        <v>4.7715510000000003E-2</v>
+        <v>4.1144809999999997E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>0.99850669999999997</v>
+        <v>0.99960910000000003</v>
       </c>
       <c r="H41" s="3">
-        <v>6.6258620000000004E-2</v>
+        <v>5.7868009999999998E-2</v>
       </c>
       <c r="I41" s="3">
-        <v>0.22861980000000001</v>
+        <v>0.47077570000000002</v>
       </c>
       <c r="J41" s="3">
-        <v>18.68299</v>
+        <v>11.642910000000001</v>
       </c>
       <c r="K41" s="3">
-        <v>0.62999830000000001</v>
+        <v>9.6708219999999994</v>
       </c>
       <c r="L41" s="3">
-        <v>2.0809760000000002</v>
+        <v>22.922409999999999</v>
       </c>
       <c r="M41" s="3">
-        <v>0.59333340000000001</v>
+        <v>6.799264</v>
       </c>
       <c r="N41" s="3">
-        <v>1.0269999999999999</v>
+        <v>1.002102</v>
       </c>
       <c r="O41" s="3">
-        <v>991.68399999999997</v>
+        <v>991.65419999999995</v>
       </c>
       <c r="P41" s="3">
-        <v>46.905100079999997</v>
+        <v>46.905121749999999</v>
       </c>
       <c r="Q41" s="3">
-        <v>-91.035963519999996</v>
+        <v>-91.03591926</v>
       </c>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>45145.476400462961</v>
+        <v>45145.476643518516</v>
       </c>
       <c r="B42" s="3">
-        <v>9.9709310000000002</v>
+        <v>9.6925000000000008</v>
       </c>
       <c r="C42" s="3">
-        <v>4.3810890000000002</v>
+        <v>5.1335150000000001</v>
       </c>
       <c r="D42" s="3">
-        <v>89.629519999999999</v>
+        <v>65.694519999999997</v>
       </c>
       <c r="E42" s="3">
-        <v>101.9468</v>
+        <v>88.983180000000004</v>
       </c>
       <c r="F42" s="3">
-        <v>4.772183E-2</v>
+        <v>4.1166340000000003E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>0.99850709999999998</v>
+        <v>0.99961610000000001</v>
       </c>
       <c r="H42" s="3">
-        <v>6.6265610000000003E-2</v>
+        <v>5.788484E-2</v>
       </c>
       <c r="I42" s="3">
-        <v>0.2367688</v>
+        <v>0.47669729999999999</v>
       </c>
       <c r="J42" s="3">
-        <v>18.67794</v>
+        <v>11.56841</v>
       </c>
       <c r="K42" s="3">
-        <v>0.61667360000000004</v>
+        <v>9.6988319999999995</v>
       </c>
       <c r="L42" s="3">
-        <v>2.0503130000000001</v>
+        <v>22.987159999999999</v>
       </c>
       <c r="M42" s="3">
-        <v>0.5919584</v>
+        <v>6.8189570000000002</v>
       </c>
       <c r="N42" s="3">
-        <v>1.0269999999999999</v>
+        <v>1.0010730000000001</v>
       </c>
       <c r="O42" s="3">
-        <v>991.68259999999998</v>
+        <v>991.65219999999999</v>
       </c>
       <c r="P42" s="3">
-        <v>46.905100079999997</v>
+        <v>46.905121749999999</v>
       </c>
       <c r="Q42" s="3">
-        <v>-91.035963519999996</v>
+        <v>-91.03591926</v>
       </c>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>45145.476412037038</v>
+        <v>45145.476655092592</v>
       </c>
       <c r="B43" s="3">
-        <v>9.9711580000000009</v>
+        <v>9.6772170000000006</v>
       </c>
       <c r="C43" s="3">
-        <v>4.3867500000000001</v>
+        <v>5.1443789999999998</v>
       </c>
       <c r="D43" s="3">
-        <v>89.633880000000005</v>
+        <v>65.587149999999994</v>
       </c>
       <c r="E43" s="3">
-        <v>101.9599</v>
+        <v>89.03828</v>
       </c>
       <c r="F43" s="3">
-        <v>4.7728140000000002E-2</v>
+        <v>4.118786E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>0.99850760000000005</v>
+        <v>0.99962320000000005</v>
       </c>
       <c r="H43" s="3">
-        <v>6.6272590000000006E-2</v>
+        <v>5.7901670000000002E-2</v>
       </c>
       <c r="I43" s="3">
-        <v>0.24491779999999999</v>
+        <v>0.48261880000000001</v>
       </c>
       <c r="J43" s="3">
-        <v>18.672889999999999</v>
+        <v>11.493919999999999</v>
       </c>
       <c r="K43" s="3">
-        <v>0.60334900000000002</v>
+        <v>9.7268410000000003</v>
       </c>
       <c r="L43" s="3">
-        <v>2.0196489999999998</v>
+        <v>23.051909999999999</v>
       </c>
       <c r="M43" s="3">
-        <v>0.59058339999999998</v>
+        <v>6.8386500000000003</v>
       </c>
       <c r="N43" s="3">
-        <v>1.0269999999999999</v>
+        <v>1.0000439999999999</v>
       </c>
       <c r="O43" s="3">
-        <v>991.68110000000001</v>
+        <v>991.65</v>
       </c>
       <c r="P43" s="3">
-        <v>46.905100079999997</v>
+        <v>46.905121749999999</v>
       </c>
       <c r="Q43" s="3">
-        <v>-91.035963519999996</v>
+        <v>-91.03591926</v>
       </c>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>45145.476423611108</v>
+        <v>45145.476666666669</v>
       </c>
       <c r="B44" s="3">
-        <v>9.9932759999999998</v>
+        <v>9.655246</v>
       </c>
       <c r="C44" s="3">
-        <v>4.4426370000000004</v>
+        <v>5.5547979999999999</v>
       </c>
       <c r="D44" s="3">
-        <v>89.715090000000004</v>
+        <v>65.755200000000002</v>
       </c>
       <c r="E44" s="3">
-        <v>102.10469999999999</v>
+        <v>89.676240000000007</v>
       </c>
       <c r="F44" s="3">
-        <v>4.779796E-2</v>
+        <v>4.1482270000000002E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>0.99851239999999997</v>
+        <v>0.99966169999999999</v>
       </c>
       <c r="H44" s="3">
-        <v>6.6368040000000003E-2</v>
+        <v>5.8631759999999998E-2</v>
       </c>
       <c r="I44" s="3">
-        <v>6.6276290000000002E-2</v>
+        <v>0.57361580000000001</v>
       </c>
       <c r="J44" s="3">
-        <v>18.65558</v>
+        <v>11.06687</v>
       </c>
       <c r="K44" s="3">
-        <v>1.6028450000000001</v>
+        <v>10.63214</v>
       </c>
       <c r="L44" s="3">
-        <v>4.3250970000000004</v>
+        <v>25.139089999999999</v>
       </c>
       <c r="M44" s="3">
-        <v>1.143588</v>
+        <v>7.4751380000000003</v>
       </c>
       <c r="N44" s="3">
-        <v>1.034915</v>
+        <v>0.96918760000000004</v>
       </c>
       <c r="O44" s="3">
-        <v>991.65419999999995</v>
+        <v>991.68529999999998</v>
       </c>
       <c r="P44" s="3">
-        <v>46.905100079999997</v>
+        <v>46.905121749999999</v>
       </c>
       <c r="Q44" s="3">
-        <v>-91.035963519999996</v>
+        <v>-91.03591926</v>
       </c>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>45145.476435185185</v>
+        <v>45145.476678240739</v>
       </c>
       <c r="B45" s="3">
-        <v>9.9950910000000004</v>
+        <v>9.6456040000000005</v>
       </c>
       <c r="C45" s="3">
-        <v>4.4466840000000003</v>
+        <v>5.5797749999999997</v>
       </c>
       <c r="D45" s="3">
-        <v>89.720489999999998</v>
+        <v>65.737129999999993</v>
       </c>
       <c r="E45" s="3">
-        <v>102.1151</v>
+        <v>89.738690000000005</v>
       </c>
       <c r="F45" s="3">
-        <v>4.7802999999999998E-2</v>
+        <v>4.1509959999999999E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>0.99851279999999998</v>
+        <v>0.99966460000000001</v>
       </c>
       <c r="H45" s="3">
-        <v>6.6374840000000004E-2</v>
+        <v>5.8674339999999998E-2</v>
       </c>
       <c r="I45" s="3">
-        <v>5.9689029999999997E-2</v>
+        <v>0.58022169999999995</v>
       </c>
       <c r="J45" s="3">
-        <v>18.653020000000001</v>
+        <v>11.02215</v>
       </c>
       <c r="K45" s="3">
-        <v>1.6496729999999999</v>
+        <v>10.678269999999999</v>
       </c>
       <c r="L45" s="3">
-        <v>4.4331440000000004</v>
+        <v>25.245450000000002</v>
       </c>
       <c r="M45" s="3">
-        <v>1.1719440000000001</v>
+        <v>7.5075710000000004</v>
       </c>
       <c r="N45" s="3">
-        <v>1.0353349999999999</v>
+        <v>0.9672636</v>
       </c>
       <c r="O45" s="3">
-        <v>991.65200000000004</v>
+        <v>991.68619999999999</v>
       </c>
       <c r="P45" s="3">
-        <v>46.905107149999999</v>
+        <v>46.905121749999999</v>
       </c>
       <c r="Q45" s="3">
-        <v>-91.035953899999996</v>
+        <v>-91.03591926</v>
       </c>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>45145.476446759261</v>
+        <v>45145.476689814815</v>
       </c>
       <c r="B46" s="3">
-        <v>9.9969070000000002</v>
+        <v>9.6359619999999993</v>
       </c>
       <c r="C46" s="3">
-        <v>4.4507320000000004</v>
+        <v>5.6047520000000004</v>
       </c>
       <c r="D46" s="3">
-        <v>89.725880000000004</v>
+        <v>65.719059999999999</v>
       </c>
       <c r="E46" s="3">
-        <v>102.12560000000001</v>
+        <v>89.801140000000004</v>
       </c>
       <c r="F46" s="3">
-        <v>4.7808040000000003E-2</v>
+        <v>4.1537659999999997E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>0.99851319999999999</v>
+        <v>0.99966750000000004</v>
       </c>
       <c r="H46" s="3">
-        <v>6.6381629999999997E-2</v>
+        <v>5.8716930000000001E-2</v>
       </c>
       <c r="I46" s="3">
-        <v>5.310177E-2</v>
+        <v>0.58682769999999995</v>
       </c>
       <c r="J46" s="3">
-        <v>18.650449999999999</v>
+        <v>10.97743</v>
       </c>
       <c r="K46" s="3">
-        <v>1.696501</v>
+        <v>10.724399999999999</v>
       </c>
       <c r="L46" s="3">
-        <v>4.5411910000000004</v>
+        <v>25.35181</v>
       </c>
       <c r="M46" s="3">
-        <v>1.2003010000000001</v>
+        <v>7.5400039999999997</v>
       </c>
       <c r="N46" s="3">
-        <v>1.0357559999999999</v>
+        <v>0.96533959999999996</v>
       </c>
       <c r="O46" s="3">
-        <v>991.64980000000003</v>
+        <v>991.68709999999999</v>
       </c>
       <c r="P46" s="3">
-        <v>46.905107149999999</v>
+        <v>46.905121749999999</v>
       </c>
       <c r="Q46" s="3">
-        <v>-91.035953899999996</v>
+        <v>-91.03591926</v>
       </c>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>45145.476458333331</v>
+        <v>45145.476701388892</v>
       </c>
       <c r="B47" s="3">
-        <v>10.0526</v>
+        <v>9.979317</v>
       </c>
       <c r="C47" s="3">
-        <v>4.5694100000000004</v>
+        <v>5.6238640000000002</v>
       </c>
       <c r="D47" s="3">
-        <v>89.683239999999998</v>
+        <v>65.520769999999999</v>
       </c>
       <c r="E47" s="3">
-        <v>102.254</v>
+        <v>91.116659999999996</v>
       </c>
       <c r="F47" s="3">
-        <v>4.7869059999999998E-2</v>
+        <v>4.2119879999999998E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>0.99852850000000004</v>
+        <v>0.99971100000000002</v>
       </c>
       <c r="H47" s="3">
-        <v>6.6465079999999996E-2</v>
+        <v>5.9265650000000003E-2</v>
       </c>
       <c r="I47" s="3">
-        <v>0.20974390000000001</v>
+        <v>0.56929879999999999</v>
       </c>
       <c r="J47" s="3">
-        <v>18.564330000000002</v>
+        <v>10.760109999999999</v>
       </c>
       <c r="K47" s="3">
-        <v>3.0452110000000001</v>
+        <v>11.375389999999999</v>
       </c>
       <c r="L47" s="3">
-        <v>7.6523960000000004</v>
+        <v>26.854030000000002</v>
       </c>
       <c r="M47" s="3">
-        <v>2.1447470000000002</v>
+        <v>7.9976919999999998</v>
       </c>
       <c r="N47" s="3">
-        <v>1.0198609999999999</v>
+        <v>0.957372</v>
       </c>
       <c r="O47" s="3">
-        <v>991.66800000000001</v>
+        <v>991.69709999999998</v>
       </c>
       <c r="P47" s="3">
-        <v>46.905107149999999</v>
+        <v>46.905121749999999</v>
       </c>
       <c r="Q47" s="3">
-        <v>-91.035953899999996</v>
+        <v>-91.03591926</v>
       </c>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>45145.476469907408</v>
+        <v>45145.476712962962</v>
       </c>
       <c r="B48" s="3">
-        <v>10.056100000000001</v>
+        <v>9.9960939999999994</v>
       </c>
       <c r="C48" s="3">
-        <v>4.5771509999999997</v>
+        <v>5.6335379999999997</v>
       </c>
       <c r="D48" s="3">
-        <v>89.682850000000002</v>
+        <v>65.51155</v>
       </c>
       <c r="E48" s="3">
-        <v>102.26439999999999</v>
+        <v>91.198390000000003</v>
       </c>
       <c r="F48" s="3">
-        <v>4.7874029999999998E-2</v>
+        <v>4.2156239999999998E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>0.99852940000000001</v>
+        <v>0.9997142</v>
       </c>
       <c r="H48" s="3">
-        <v>6.6471840000000004E-2</v>
+        <v>5.9309149999999998E-2</v>
       </c>
       <c r="I48" s="3">
-        <v>0.2142992</v>
+        <v>0.57041129999999995</v>
       </c>
       <c r="J48" s="3">
-        <v>18.55922</v>
+        <v>10.73846</v>
       </c>
       <c r="K48" s="3">
-        <v>3.1399249999999999</v>
+        <v>11.42801</v>
       </c>
       <c r="L48" s="3">
-        <v>7.8708790000000004</v>
+        <v>26.97542</v>
       </c>
       <c r="M48" s="3">
-        <v>2.2079119999999999</v>
+        <v>8.0346890000000002</v>
       </c>
       <c r="N48" s="3">
-        <v>1.019185</v>
+        <v>0.95630539999999997</v>
       </c>
       <c r="O48" s="3">
-        <v>991.66840000000002</v>
+        <v>991.69820000000004</v>
       </c>
       <c r="P48" s="3">
-        <v>46.905114300000001</v>
+        <v>46.905122599999999</v>
       </c>
       <c r="Q48" s="3">
-        <v>-91.035942860000006</v>
+        <v>-91.035903779999998</v>
       </c>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>45145.476481481484</v>
+        <v>45145.476724537039</v>
       </c>
       <c r="B49" s="3">
-        <v>10.05959</v>
+        <v>10.012869999999999</v>
       </c>
       <c r="C49" s="3">
-        <v>4.584892</v>
+        <v>5.6432120000000001</v>
       </c>
       <c r="D49" s="3">
-        <v>89.682450000000003</v>
+        <v>65.502340000000004</v>
       </c>
       <c r="E49" s="3">
-        <v>102.2748</v>
+        <v>91.28013</v>
       </c>
       <c r="F49" s="3">
-        <v>4.7878990000000003E-2</v>
+        <v>4.2192590000000002E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>0.99853029999999998</v>
+        <v>0.99971739999999998</v>
       </c>
       <c r="H49" s="3">
-        <v>6.6478599999999999E-2</v>
+        <v>5.935265E-2</v>
       </c>
       <c r="I49" s="3">
-        <v>0.21885450000000001</v>
+        <v>0.57152380000000003</v>
       </c>
       <c r="J49" s="3">
-        <v>18.554120000000001</v>
+        <v>10.716810000000001</v>
       </c>
       <c r="K49" s="3">
-        <v>3.2346400000000002</v>
+        <v>11.48063</v>
       </c>
       <c r="L49" s="3">
-        <v>8.0893630000000005</v>
+        <v>27.096810000000001</v>
       </c>
       <c r="M49" s="3">
-        <v>2.271077</v>
+        <v>8.0716859999999997</v>
       </c>
       <c r="N49" s="3">
-        <v>1.018508</v>
+        <v>0.95523880000000005</v>
       </c>
       <c r="O49" s="3">
-        <v>991.66880000000003</v>
+        <v>991.69949999999994</v>
       </c>
       <c r="P49" s="3">
-        <v>46.905114300000001</v>
+        <v>46.905122599999999</v>
       </c>
       <c r="Q49" s="3">
-        <v>-91.035942860000006</v>
+        <v>-91.035903779999998</v>
       </c>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>45145.476493055554</v>
+        <v>45145.476736111108</v>
       </c>
       <c r="B50" s="3">
-        <v>9.9315990000000003</v>
+        <v>10.18886</v>
       </c>
       <c r="C50" s="3">
-        <v>4.5510950000000001</v>
+        <v>5.9478340000000003</v>
       </c>
       <c r="D50" s="3">
-        <v>89.870339999999999</v>
+        <v>65.179919999999996</v>
       </c>
       <c r="E50" s="3">
-        <v>102.6593</v>
+        <v>91.49888</v>
       </c>
       <c r="F50" s="3">
-        <v>4.8064170000000003E-2</v>
+        <v>4.2275180000000002E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>0.99864379999999997</v>
+        <v>0.99977179999999999</v>
       </c>
       <c r="H50" s="3">
-        <v>6.1916590000000001E-2</v>
+        <v>5.9350840000000002E-2</v>
       </c>
       <c r="I50" s="3">
-        <v>0.32762150000000001</v>
+        <v>0.56928789999999996</v>
       </c>
       <c r="J50" s="3">
-        <v>18.477879999999999</v>
+        <v>9.9996989999999997</v>
       </c>
       <c r="K50" s="3">
-        <v>5.6701600000000001</v>
+        <v>13.39362</v>
       </c>
       <c r="L50" s="3">
-        <v>13.70429</v>
+        <v>31.513069999999999</v>
       </c>
       <c r="M50" s="3">
-        <v>3.9865189999999999</v>
+        <v>9.4166559999999997</v>
       </c>
       <c r="N50" s="3">
-        <v>1.0183690000000001</v>
+        <v>0.9399016</v>
       </c>
       <c r="O50" s="3">
-        <v>991.678</v>
+        <v>991.7079</v>
       </c>
       <c r="P50" s="3">
-        <v>46.905114300000001</v>
+        <v>46.905122599999999</v>
       </c>
       <c r="Q50" s="3">
-        <v>-91.035942860000006</v>
+        <v>-91.035903779999998</v>
       </c>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>45145.476504629631</v>
+        <v>45145.476747685185</v>
       </c>
       <c r="B51" s="3">
-        <v>9.9261520000000001</v>
+        <v>10.20501</v>
       </c>
       <c r="C51" s="3">
-        <v>4.5521260000000003</v>
+        <v>5.964054</v>
       </c>
       <c r="D51" s="3">
-        <v>89.879390000000001</v>
+        <v>65.158659999999998</v>
       </c>
       <c r="E51" s="3">
-        <v>102.6828</v>
+        <v>91.538380000000004</v>
       </c>
       <c r="F51" s="3">
-        <v>4.807546E-2</v>
+        <v>4.2291919999999997E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>0.99865009999999999</v>
+        <v>0.99977559999999999</v>
       </c>
       <c r="H51" s="3">
-        <v>6.1677389999999999E-2</v>
+        <v>5.9362369999999998E-2</v>
       </c>
       <c r="I51" s="3">
-        <v>0.3368815</v>
+        <v>0.56883850000000002</v>
       </c>
       <c r="J51" s="3">
-        <v>18.471810000000001</v>
+        <v>9.9576729999999998</v>
       </c>
       <c r="K51" s="3">
-        <v>5.8309699999999998</v>
+        <v>13.50615</v>
       </c>
       <c r="L51" s="3">
-        <v>14.07507</v>
+        <v>31.772829999999999</v>
       </c>
       <c r="M51" s="3">
-        <v>4.0995799999999996</v>
+        <v>9.4957689999999992</v>
       </c>
       <c r="N51" s="3">
-        <v>1.0180020000000001</v>
+        <v>0.93893530000000003</v>
       </c>
       <c r="O51" s="3">
-        <v>991.6789</v>
+        <v>991.70860000000005</v>
       </c>
       <c r="P51" s="3">
-        <v>46.905114300000001</v>
+        <v>46.905122599999999</v>
       </c>
       <c r="Q51" s="3">
-        <v>-91.035942860000006</v>
+        <v>-91.035903779999998</v>
       </c>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>45145.4765162037</v>
+        <v>45145.476759259262</v>
       </c>
       <c r="B52" s="3">
-        <v>10.011189999999999</v>
+        <v>10.221159999999999</v>
       </c>
       <c r="C52" s="3">
-        <v>4.6421510000000001</v>
+        <v>5.9802749999999998</v>
       </c>
       <c r="D52" s="3">
-        <v>76.522570000000002</v>
+        <v>65.1374</v>
       </c>
       <c r="E52" s="3">
-        <v>91.927949999999996</v>
+        <v>91.5779</v>
       </c>
       <c r="F52" s="3">
-        <v>4.2812120000000002E-2</v>
+        <v>4.2308659999999998E-2</v>
       </c>
       <c r="G52" s="3">
-        <v>0.99895699999999998</v>
+        <v>0.99977930000000004</v>
       </c>
       <c r="H52" s="3">
-        <v>5.9107199999999999E-2</v>
+        <v>5.93739E-2</v>
       </c>
       <c r="I52" s="3">
-        <v>0.37493660000000001</v>
+        <v>0.56838900000000003</v>
       </c>
       <c r="J52" s="3">
-        <v>17.95026</v>
+        <v>9.9156469999999999</v>
       </c>
       <c r="K52" s="3">
-        <v>6.7803300000000002</v>
+        <v>13.61867</v>
       </c>
       <c r="L52" s="3">
-        <v>16.259779999999999</v>
+        <v>32.032589999999999</v>
       </c>
       <c r="M52" s="3">
-        <v>4.7670459999999997</v>
+        <v>9.5748809999999995</v>
       </c>
       <c r="N52" s="3">
-        <v>1.018</v>
+        <v>0.93796900000000005</v>
       </c>
       <c r="O52" s="3">
-        <v>991.65409999999997</v>
+        <v>991.70920000000001</v>
       </c>
       <c r="P52" s="3">
-        <v>46.905114300000001</v>
+        <v>46.905122599999999</v>
       </c>
       <c r="Q52" s="3">
-        <v>-91.035942860000006</v>
+        <v>-91.035903779999998</v>
       </c>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>45145.476527777777</v>
+        <v>45145.476770833331</v>
       </c>
       <c r="B53" s="3">
-        <v>10.01337</v>
+        <v>9.9969990000000006</v>
       </c>
       <c r="C53" s="3">
-        <v>4.6465779999999999</v>
+        <v>6.2251320000000003</v>
       </c>
       <c r="D53" s="3">
-        <v>75.770150000000001</v>
+        <v>63.541980000000002</v>
       </c>
       <c r="E53" s="3">
-        <v>91.326970000000003</v>
+        <v>91.151089999999996</v>
       </c>
       <c r="F53" s="3">
-        <v>4.2517949999999999E-2</v>
+        <v>4.2037539999999998E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>0.9989768</v>
+        <v>0.99980939999999996</v>
       </c>
       <c r="H53" s="3">
-        <v>5.8867320000000001E-2</v>
+        <v>5.9229219999999999E-2</v>
       </c>
       <c r="I53" s="3">
-        <v>0.37926989999999999</v>
+        <v>0.7234756</v>
       </c>
       <c r="J53" s="3">
-        <v>17.919139999999999</v>
+        <v>9.5389169999999996</v>
       </c>
       <c r="K53" s="3">
-        <v>6.8849390000000001</v>
+        <v>14.695309999999999</v>
       </c>
       <c r="L53" s="3">
-        <v>16.500720000000001</v>
+        <v>34.515389999999996</v>
       </c>
       <c r="M53" s="3">
-        <v>4.8405940000000003</v>
+        <v>10.33183</v>
       </c>
       <c r="N53" s="3">
-        <v>1.018</v>
+        <v>0.93008979999999997</v>
       </c>
       <c r="O53" s="3">
-        <v>991.65279999999996</v>
+        <v>991.69240000000002</v>
       </c>
       <c r="P53" s="3">
-        <v>46.905114300000001</v>
+        <v>46.905113579999998</v>
       </c>
       <c r="Q53" s="3">
-        <v>-91.035942860000006</v>
+        <v>-91.035895789999998</v>
       </c>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>45145.476539351854</v>
+        <v>45145.476782407408</v>
       </c>
       <c r="B54" s="3">
-        <v>10.015549999999999</v>
+        <v>9.9891129999999997</v>
       </c>
       <c r="C54" s="3">
-        <v>4.6510040000000004</v>
+        <v>6.244211</v>
       </c>
       <c r="D54" s="3">
-        <v>75.01773</v>
+        <v>63.453049999999998</v>
       </c>
       <c r="E54" s="3">
-        <v>90.725989999999996</v>
+        <v>91.13364</v>
       </c>
       <c r="F54" s="3">
-        <v>4.2223770000000001E-2</v>
+        <v>4.2025279999999998E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>0.99899640000000001</v>
+        <v>0.99981209999999998</v>
       </c>
       <c r="H54" s="3">
-        <v>5.8627440000000003E-2</v>
+        <v>5.922177E-2</v>
       </c>
       <c r="I54" s="3">
-        <v>0.38360329999999998</v>
+        <v>0.73143230000000004</v>
       </c>
       <c r="J54" s="3">
-        <v>17.888010000000001</v>
+        <v>9.5043830000000007</v>
       </c>
       <c r="K54" s="3">
-        <v>6.989547</v>
+        <v>14.791079999999999</v>
       </c>
       <c r="L54" s="3">
-        <v>16.74166</v>
+        <v>34.736339999999998</v>
       </c>
       <c r="M54" s="3">
-        <v>4.9141409999999999</v>
+        <v>10.39916</v>
       </c>
       <c r="N54" s="3">
-        <v>1.018</v>
+        <v>0.92935780000000001</v>
       </c>
       <c r="O54" s="3">
-        <v>991.65160000000003</v>
+        <v>991.69179999999994</v>
       </c>
       <c r="P54" s="3">
-        <v>46.905114300000001</v>
+        <v>46.905113579999998</v>
       </c>
       <c r="Q54" s="3">
-        <v>-91.035942860000006</v>
+        <v>-91.035895789999998</v>
       </c>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>45145.476550925923</v>
+        <v>45145.476793981485</v>
       </c>
       <c r="B55" s="3">
-        <v>9.8758490000000005</v>
+        <v>9.9812270000000005</v>
       </c>
       <c r="C55" s="3">
-        <v>4.8520490000000001</v>
+        <v>6.2632880000000002</v>
       </c>
       <c r="D55" s="3">
-        <v>70.755470000000003</v>
+        <v>63.36412</v>
       </c>
       <c r="E55" s="3">
-        <v>89.114419999999996</v>
+        <v>91.116190000000003</v>
       </c>
       <c r="F55" s="3">
-        <v>4.1380989999999999E-2</v>
+        <v>4.2013019999999998E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>0.99925050000000004</v>
+        <v>0.99981489999999995</v>
       </c>
       <c r="H55" s="3">
-        <v>5.7714120000000001E-2</v>
+        <v>5.9214320000000001E-2</v>
       </c>
       <c r="I55" s="3">
-        <v>0.32622839999999997</v>
+        <v>0.73938899999999996</v>
       </c>
       <c r="J55" s="3">
-        <v>14.43355</v>
+        <v>9.4698510000000002</v>
       </c>
       <c r="K55" s="3">
-        <v>8.0282959999999992</v>
+        <v>14.886850000000001</v>
       </c>
       <c r="L55" s="3">
-        <v>19.128419999999998</v>
+        <v>34.95729</v>
       </c>
       <c r="M55" s="3">
-        <v>5.6444539999999996</v>
+        <v>10.4665</v>
       </c>
       <c r="N55" s="3">
-        <v>1.02559</v>
+        <v>0.9286259</v>
       </c>
       <c r="O55" s="3">
-        <v>991.69309999999996</v>
+        <v>991.69110000000001</v>
       </c>
       <c r="P55" s="3">
-        <v>46.905120959999998</v>
+        <v>46.905113579999998</v>
       </c>
       <c r="Q55" s="3">
-        <v>-91.035932880000004</v>
+        <v>-91.035895789999998</v>
       </c>
       <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>45145.4765625</v>
+        <v>45145.476805555554</v>
       </c>
       <c r="B56" s="3">
-        <v>9.8699929999999991</v>
+        <v>9.9733409999999996</v>
       </c>
       <c r="C56" s="3">
-        <v>4.8654479999999998</v>
+        <v>6.2823659999999997</v>
       </c>
       <c r="D56" s="3">
-        <v>70.213610000000003</v>
+        <v>63.275190000000002</v>
       </c>
       <c r="E56" s="3">
-        <v>88.780619999999999</v>
+        <v>91.098730000000003</v>
       </c>
       <c r="F56" s="3">
-        <v>4.1214580000000001E-2</v>
+        <v>4.2000759999999998E-2</v>
       </c>
       <c r="G56" s="3">
-        <v>0.99927169999999998</v>
+        <v>0.99981759999999997</v>
       </c>
       <c r="H56" s="3">
-        <v>5.76085E-2</v>
+        <v>5.9206870000000002E-2</v>
       </c>
       <c r="I56" s="3">
-        <v>0.32375999999999999</v>
+        <v>0.7473457</v>
       </c>
       <c r="J56" s="3">
-        <v>14.22697</v>
+        <v>9.4353169999999995</v>
       </c>
       <c r="K56" s="3">
-        <v>8.1062180000000001</v>
+        <v>14.982620000000001</v>
       </c>
       <c r="L56" s="3">
-        <v>19.30753</v>
+        <v>35.178240000000002</v>
       </c>
       <c r="M56" s="3">
-        <v>5.6992390000000004</v>
+        <v>10.53383</v>
       </c>
       <c r="N56" s="3">
-        <v>1.026019</v>
+        <v>0.92789390000000005</v>
       </c>
       <c r="O56" s="3">
-        <v>991.69479999999999</v>
+        <v>991.69039999999995</v>
       </c>
       <c r="P56" s="3">
-        <v>46.905120959999998</v>
+        <v>46.905108540000001</v>
       </c>
       <c r="Q56" s="3">
-        <v>-91.035932880000004</v>
+        <v>-91.035883690000006</v>
       </c>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>45145.476574074077</v>
+        <v>45145.476817129631</v>
       </c>
       <c r="B57" s="3">
-        <v>9.8641380000000005</v>
+        <v>10.158569999999999</v>
       </c>
       <c r="C57" s="3">
-        <v>4.8788479999999996</v>
+        <v>6.3061040000000004</v>
       </c>
       <c r="D57" s="3">
-        <v>69.671750000000003</v>
+        <v>62.635919999999999</v>
       </c>
       <c r="E57" s="3">
-        <v>88.446820000000002</v>
+        <v>91.139399999999995</v>
       </c>
       <c r="F57" s="3">
-        <v>4.1048170000000002E-2</v>
+        <v>4.1982930000000002E-2</v>
       </c>
       <c r="G57" s="3">
-        <v>0.99929290000000004</v>
+        <v>0.99984399999999996</v>
       </c>
       <c r="H57" s="3">
-        <v>5.7502879999999999E-2</v>
+        <v>5.9416160000000003E-2</v>
       </c>
       <c r="I57" s="3">
-        <v>0.32129150000000001</v>
+        <v>0.67995850000000002</v>
       </c>
       <c r="J57" s="3">
-        <v>14.020379999999999</v>
+        <v>8.6684450000000002</v>
       </c>
       <c r="K57" s="3">
-        <v>8.1841419999999996</v>
+        <v>16.7118</v>
       </c>
       <c r="L57" s="3">
-        <v>19.486640000000001</v>
+        <v>39.169379999999997</v>
       </c>
       <c r="M57" s="3">
-        <v>5.7540250000000004</v>
+        <v>11.74957</v>
       </c>
       <c r="N57" s="3">
-        <v>1.0264470000000001</v>
+        <v>0.92027870000000001</v>
       </c>
       <c r="O57" s="3">
-        <v>991.69659999999999</v>
+        <v>991.69899999999996</v>
       </c>
       <c r="P57" s="3">
-        <v>46.905120959999998</v>
+        <v>46.905108540000001</v>
       </c>
       <c r="Q57" s="3">
-        <v>-91.035932880000004</v>
+        <v>-91.035883690000006</v>
       </c>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>45145.476585648146</v>
+        <v>45145.4768287037</v>
       </c>
       <c r="B58" s="3">
-        <v>10.06378</v>
+        <v>10.163069999999999</v>
       </c>
       <c r="C58" s="3">
-        <v>4.9174119999999997</v>
+        <v>6.3128510000000002</v>
       </c>
       <c r="D58" s="3">
-        <v>67.353620000000006</v>
+        <v>62.568820000000002</v>
       </c>
       <c r="E58" s="3">
-        <v>87.733289999999997</v>
+        <v>91.132379999999998</v>
       </c>
       <c r="F58" s="3">
-        <v>4.065266E-2</v>
+        <v>4.197621E-2</v>
       </c>
       <c r="G58" s="3">
-        <v>0.99953270000000005</v>
+        <v>0.99984600000000001</v>
       </c>
       <c r="H58" s="3">
-        <v>5.762743E-2</v>
+        <v>5.9423509999999999E-2</v>
       </c>
       <c r="I58" s="3">
-        <v>0.37822339999999999</v>
+        <v>0.67997989999999997</v>
       </c>
       <c r="J58" s="3">
-        <v>12.91361</v>
+        <v>8.6213669999999993</v>
       </c>
       <c r="K58" s="3">
-        <v>9.4603590000000004</v>
+        <v>16.823129999999999</v>
       </c>
       <c r="L58" s="3">
-        <v>22.436509999999998</v>
+        <v>39.426279999999998</v>
       </c>
       <c r="M58" s="3">
-        <v>6.651294</v>
+        <v>11.82784</v>
       </c>
       <c r="N58" s="3">
-        <v>1.0190570000000001</v>
+        <v>0.91971460000000005</v>
       </c>
       <c r="O58" s="3">
-        <v>991.68939999999998</v>
+        <v>991.69899999999996</v>
       </c>
       <c r="P58" s="3">
-        <v>46.905120959999998</v>
+        <v>46.905108540000001</v>
       </c>
       <c r="Q58" s="3">
-        <v>-91.035932880000004</v>
+        <v>-91.035883690000006</v>
       </c>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>45145.476597222223</v>
+        <v>45145.476840277777</v>
       </c>
       <c r="B59" s="3">
-        <v>10.071770000000001</v>
+        <v>10.16757</v>
       </c>
       <c r="C59" s="3">
-        <v>4.9240680000000001</v>
+        <v>6.319598</v>
       </c>
       <c r="D59" s="3">
-        <v>67.134460000000004</v>
+        <v>62.501719999999999</v>
       </c>
       <c r="E59" s="3">
-        <v>87.662610000000001</v>
+        <v>91.125349999999997</v>
       </c>
       <c r="F59" s="3">
-        <v>4.0614240000000003E-2</v>
+        <v>4.19695E-2</v>
       </c>
       <c r="G59" s="3">
-        <v>0.99955170000000004</v>
+        <v>0.99984810000000002</v>
       </c>
       <c r="H59" s="3">
-        <v>5.7615180000000002E-2</v>
+        <v>5.9430869999999997E-2</v>
       </c>
       <c r="I59" s="3">
-        <v>0.38009910000000002</v>
+        <v>0.68000130000000003</v>
       </c>
       <c r="J59" s="3">
-        <v>12.77378</v>
+        <v>8.5742910000000006</v>
       </c>
       <c r="K59" s="3">
-        <v>9.5548789999999997</v>
+        <v>16.934449999999998</v>
       </c>
       <c r="L59" s="3">
-        <v>22.654669999999999</v>
+        <v>39.68318</v>
       </c>
       <c r="M59" s="3">
-        <v>6.7177490000000004</v>
+        <v>11.90611</v>
       </c>
       <c r="N59" s="3">
-        <v>1.0188140000000001</v>
+        <v>0.91915049999999998</v>
       </c>
       <c r="O59" s="3">
-        <v>991.68989999999997</v>
+        <v>991.69910000000004</v>
       </c>
       <c r="P59" s="3">
-        <v>46.905120959999998</v>
+        <v>46.905108540000001</v>
       </c>
       <c r="Q59" s="3">
-        <v>-91.035932880000004</v>
+        <v>-91.035883690000006</v>
       </c>
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>45145.4766087963</v>
+        <v>45145.476851851854</v>
       </c>
       <c r="B60" s="3">
-        <v>10.07977</v>
+        <v>10.376899999999999</v>
       </c>
       <c r="C60" s="3">
-        <v>4.9307259999999999</v>
+        <v>6.4174509999999998</v>
       </c>
       <c r="D60" s="3">
-        <v>66.915300000000002</v>
+        <v>62.068429999999999</v>
       </c>
       <c r="E60" s="3">
-        <v>87.591930000000005</v>
+        <v>92.047449999999998</v>
       </c>
       <c r="F60" s="3">
-        <v>4.0575840000000002E-2</v>
+        <v>4.2346799999999997E-2</v>
       </c>
       <c r="G60" s="3">
-        <v>0.99957079999999998</v>
+        <v>0.99988699999999997</v>
       </c>
       <c r="H60" s="3">
-        <v>5.7602929999999997E-2</v>
+        <v>5.9852759999999998E-2</v>
       </c>
       <c r="I60" s="3">
-        <v>0.3819748</v>
+        <v>0.74327770000000004</v>
       </c>
       <c r="J60" s="3">
-        <v>12.633940000000001</v>
+        <v>8.24</v>
       </c>
       <c r="K60" s="3">
-        <v>9.6494</v>
+        <v>17.5397</v>
       </c>
       <c r="L60" s="3">
-        <v>22.87283</v>
+        <v>40.987090000000002</v>
       </c>
       <c r="M60" s="3">
-        <v>6.7842029999999998</v>
+        <v>12.331630000000001</v>
       </c>
       <c r="N60" s="3">
-        <v>1.0185709999999999</v>
+        <v>0.91924589999999995</v>
       </c>
       <c r="O60" s="3">
-        <v>991.69039999999995</v>
+        <v>991.68209999999999</v>
       </c>
       <c r="P60" s="3">
-        <v>46.905120959999998</v>
+        <v>46.905108540000001</v>
       </c>
       <c r="Q60" s="3">
-        <v>-91.035932880000004</v>
+        <v>-91.035883690000006</v>
       </c>
       <c r="R60" s="3"/>
-    </row>
-    <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>45145.476620370369</v>
-      </c>
-      <c r="B61" s="3">
-        <v>10.087759999999999</v>
-      </c>
-      <c r="C61" s="3">
-        <v>4.9373829999999996</v>
-      </c>
-      <c r="D61" s="3">
-        <v>66.69614</v>
-      </c>
-      <c r="E61" s="3">
-        <v>87.521259999999998</v>
-      </c>
-      <c r="F61" s="3">
-        <v>4.0537429999999999E-2</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0.99958979999999997</v>
-      </c>
-      <c r="H61" s="3">
-        <v>5.759069E-2</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0.38385049999999998</v>
-      </c>
-      <c r="J61" s="3">
-        <v>12.4941</v>
-      </c>
-      <c r="K61" s="3">
-        <v>9.743919</v>
-      </c>
-      <c r="L61" s="3">
-        <v>23.090990000000001</v>
-      </c>
-      <c r="M61" s="3">
-        <v>6.850657</v>
-      </c>
-      <c r="N61" s="3">
-        <v>1.0183279999999999</v>
-      </c>
-      <c r="O61" s="3">
-        <v>991.69100000000003</v>
-      </c>
-      <c r="P61" s="3">
-        <v>46.905120959999998</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>-91.035932880000004</v>
-      </c>
-      <c r="R61" s="3"/>
-    </row>
-    <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>45145.476631944446</v>
-      </c>
-      <c r="B62" s="3">
-        <v>9.7077829999999992</v>
-      </c>
-      <c r="C62" s="3">
-        <v>5.1226510000000003</v>
-      </c>
-      <c r="D62" s="3">
-        <v>65.801900000000003</v>
-      </c>
-      <c r="E62" s="3">
-        <v>88.928089999999997</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4.1144809999999997E-2</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0.99960910000000003</v>
-      </c>
-      <c r="H62" s="3">
-        <v>5.7868009999999998E-2</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0.47077570000000002</v>
-      </c>
-      <c r="J62" s="3">
-        <v>11.642910000000001</v>
-      </c>
-      <c r="K62" s="3">
-        <v>9.6708219999999994</v>
-      </c>
-      <c r="L62" s="3">
-        <v>22.922409999999999</v>
-      </c>
-      <c r="M62" s="3">
-        <v>6.799264</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1.002102</v>
-      </c>
-      <c r="O62" s="3">
-        <v>991.65419999999995</v>
-      </c>
-      <c r="P62" s="3">
-        <v>46.905121749999999</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>-91.03591926</v>
-      </c>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>45145.476643518516</v>
-      </c>
-      <c r="B63" s="3">
-        <v>9.6925000000000008</v>
-      </c>
-      <c r="C63" s="3">
-        <v>5.1335150000000001</v>
-      </c>
-      <c r="D63" s="3">
-        <v>65.694519999999997</v>
-      </c>
-      <c r="E63" s="3">
-        <v>88.983180000000004</v>
-      </c>
-      <c r="F63" s="3">
-        <v>4.1166340000000003E-2</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0.99961610000000001</v>
-      </c>
-      <c r="H63" s="3">
-        <v>5.788484E-2</v>
-      </c>
-      <c r="I63" s="3">
-        <v>0.47669729999999999</v>
-      </c>
-      <c r="J63" s="3">
-        <v>11.56841</v>
-      </c>
-      <c r="K63" s="3">
-        <v>9.6988319999999995</v>
-      </c>
-      <c r="L63" s="3">
-        <v>22.987159999999999</v>
-      </c>
-      <c r="M63" s="3">
-        <v>6.8189570000000002</v>
-      </c>
-      <c r="N63" s="3">
-        <v>1.0010730000000001</v>
-      </c>
-      <c r="O63" s="3">
-        <v>991.65219999999999</v>
-      </c>
-      <c r="P63" s="3">
-        <v>46.905121749999999</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>-91.03591926</v>
-      </c>
-      <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>45145.476655092592</v>
-      </c>
-      <c r="B64" s="3">
-        <v>9.6772170000000006</v>
-      </c>
-      <c r="C64" s="3">
-        <v>5.1443789999999998</v>
-      </c>
-      <c r="D64" s="3">
-        <v>65.587149999999994</v>
-      </c>
-      <c r="E64" s="3">
-        <v>89.03828</v>
-      </c>
-      <c r="F64" s="3">
-        <v>4.118786E-2</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0.99962320000000005</v>
-      </c>
-      <c r="H64" s="3">
-        <v>5.7901670000000002E-2</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0.48261880000000001</v>
-      </c>
-      <c r="J64" s="3">
-        <v>11.493919999999999</v>
-      </c>
-      <c r="K64" s="3">
-        <v>9.7268410000000003</v>
-      </c>
-      <c r="L64" s="3">
-        <v>23.051909999999999</v>
-      </c>
-      <c r="M64" s="3">
-        <v>6.8386500000000003</v>
-      </c>
-      <c r="N64" s="3">
-        <v>1.0000439999999999</v>
-      </c>
-      <c r="O64" s="3">
-        <v>991.65</v>
-      </c>
-      <c r="P64" s="3">
-        <v>46.905121749999999</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>-91.03591926</v>
-      </c>
-      <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>45145.476666666669</v>
-      </c>
-      <c r="B65" s="3">
-        <v>9.655246</v>
-      </c>
-      <c r="C65" s="3">
-        <v>5.5547979999999999</v>
-      </c>
-      <c r="D65" s="3">
-        <v>65.755200000000002</v>
-      </c>
-      <c r="E65" s="3">
-        <v>89.676240000000007</v>
-      </c>
-      <c r="F65" s="3">
-        <v>4.1482270000000002E-2</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0.99966169999999999</v>
-      </c>
-      <c r="H65" s="3">
-        <v>5.8631759999999998E-2</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0.57361580000000001</v>
-      </c>
-      <c r="J65" s="3">
-        <v>11.06687</v>
-      </c>
-      <c r="K65" s="3">
-        <v>10.63214</v>
-      </c>
-      <c r="L65" s="3">
-        <v>25.139089999999999</v>
-      </c>
-      <c r="M65" s="3">
-        <v>7.4751380000000003</v>
-      </c>
-      <c r="N65" s="3">
-        <v>0.96918760000000004</v>
-      </c>
-      <c r="O65" s="3">
-        <v>991.68529999999998</v>
-      </c>
-      <c r="P65" s="3">
-        <v>46.905121749999999</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>-91.03591926</v>
-      </c>
-      <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>45145.476678240739</v>
-      </c>
-      <c r="B66" s="3">
-        <v>9.6456040000000005</v>
-      </c>
-      <c r="C66" s="3">
-        <v>5.5797749999999997</v>
-      </c>
-      <c r="D66" s="3">
-        <v>65.737129999999993</v>
-      </c>
-      <c r="E66" s="3">
-        <v>89.738690000000005</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4.1509959999999999E-2</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0.99966460000000001</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5.8674339999999998E-2</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0.58022169999999995</v>
-      </c>
-      <c r="J66" s="3">
-        <v>11.02215</v>
-      </c>
-      <c r="K66" s="3">
-        <v>10.678269999999999</v>
-      </c>
-      <c r="L66" s="3">
-        <v>25.245450000000002</v>
-      </c>
-      <c r="M66" s="3">
-        <v>7.5075710000000004</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0.9672636</v>
-      </c>
-      <c r="O66" s="3">
-        <v>991.68619999999999</v>
-      </c>
-      <c r="P66" s="3">
-        <v>46.905121749999999</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>-91.03591926</v>
-      </c>
-      <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>45145.476689814815</v>
-      </c>
-      <c r="B67" s="3">
-        <v>9.6359619999999993</v>
-      </c>
-      <c r="C67" s="3">
-        <v>5.6047520000000004</v>
-      </c>
-      <c r="D67" s="3">
-        <v>65.719059999999999</v>
-      </c>
-      <c r="E67" s="3">
-        <v>89.801140000000004</v>
-      </c>
-      <c r="F67" s="3">
-        <v>4.1537659999999997E-2</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0.99966750000000004</v>
-      </c>
-      <c r="H67" s="3">
-        <v>5.8716930000000001E-2</v>
-      </c>
-      <c r="I67" s="3">
-        <v>0.58682769999999995</v>
-      </c>
-      <c r="J67" s="3">
-        <v>10.97743</v>
-      </c>
-      <c r="K67" s="3">
-        <v>10.724399999999999</v>
-      </c>
-      <c r="L67" s="3">
-        <v>25.35181</v>
-      </c>
-      <c r="M67" s="3">
-        <v>7.5400039999999997</v>
-      </c>
-      <c r="N67" s="3">
-        <v>0.96533959999999996</v>
-      </c>
-      <c r="O67" s="3">
-        <v>991.68709999999999</v>
-      </c>
-      <c r="P67" s="3">
-        <v>46.905121749999999</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>-91.03591926</v>
-      </c>
-      <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>45145.476701388892</v>
-      </c>
-      <c r="B68" s="3">
-        <v>9.979317</v>
-      </c>
-      <c r="C68" s="3">
-        <v>5.6238640000000002</v>
-      </c>
-      <c r="D68" s="3">
-        <v>65.520769999999999</v>
-      </c>
-      <c r="E68" s="3">
-        <v>91.116659999999996</v>
-      </c>
-      <c r="F68" s="3">
-        <v>4.2119879999999998E-2</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0.99971100000000002</v>
-      </c>
-      <c r="H68" s="3">
-        <v>5.9265650000000003E-2</v>
-      </c>
-      <c r="I68" s="3">
-        <v>0.56929879999999999</v>
-      </c>
-      <c r="J68" s="3">
-        <v>10.760109999999999</v>
-      </c>
-      <c r="K68" s="3">
-        <v>11.375389999999999</v>
-      </c>
-      <c r="L68" s="3">
-        <v>26.854030000000002</v>
-      </c>
-      <c r="M68" s="3">
-        <v>7.9976919999999998</v>
-      </c>
-      <c r="N68" s="3">
-        <v>0.957372</v>
-      </c>
-      <c r="O68" s="3">
-        <v>991.69709999999998</v>
-      </c>
-      <c r="P68" s="3">
-        <v>46.905121749999999</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>-91.03591926</v>
-      </c>
-      <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>45145.476712962962</v>
-      </c>
-      <c r="B69" s="3">
-        <v>9.9960939999999994</v>
-      </c>
-      <c r="C69" s="3">
-        <v>5.6335379999999997</v>
-      </c>
-      <c r="D69" s="3">
-        <v>65.51155</v>
-      </c>
-      <c r="E69" s="3">
-        <v>91.198390000000003</v>
-      </c>
-      <c r="F69" s="3">
-        <v>4.2156239999999998E-2</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0.9997142</v>
-      </c>
-      <c r="H69" s="3">
-        <v>5.9309149999999998E-2</v>
-      </c>
-      <c r="I69" s="3">
-        <v>0.57041129999999995</v>
-      </c>
-      <c r="J69" s="3">
-        <v>10.73846</v>
-      </c>
-      <c r="K69" s="3">
-        <v>11.42801</v>
-      </c>
-      <c r="L69" s="3">
-        <v>26.97542</v>
-      </c>
-      <c r="M69" s="3">
-        <v>8.0346890000000002</v>
-      </c>
-      <c r="N69" s="3">
-        <v>0.95630539999999997</v>
-      </c>
-      <c r="O69" s="3">
-        <v>991.69820000000004</v>
-      </c>
-      <c r="P69" s="3">
-        <v>46.905122599999999</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>-91.035903779999998</v>
-      </c>
-      <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>45145.476724537039</v>
-      </c>
-      <c r="B70" s="3">
-        <v>10.012869999999999</v>
-      </c>
-      <c r="C70" s="3">
-        <v>5.6432120000000001</v>
-      </c>
-      <c r="D70" s="3">
-        <v>65.502340000000004</v>
-      </c>
-      <c r="E70" s="3">
-        <v>91.28013</v>
-      </c>
-      <c r="F70" s="3">
-        <v>4.2192590000000002E-2</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0.99971739999999998</v>
-      </c>
-      <c r="H70" s="3">
-        <v>5.935265E-2</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0.57152380000000003</v>
-      </c>
-      <c r="J70" s="3">
-        <v>10.716810000000001</v>
-      </c>
-      <c r="K70" s="3">
-        <v>11.48063</v>
-      </c>
-      <c r="L70" s="3">
-        <v>27.096810000000001</v>
-      </c>
-      <c r="M70" s="3">
-        <v>8.0716859999999997</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0.95523880000000005</v>
-      </c>
-      <c r="O70" s="3">
-        <v>991.69949999999994</v>
-      </c>
-      <c r="P70" s="3">
-        <v>46.905122599999999</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>-91.035903779999998</v>
-      </c>
-      <c r="R70" s="3"/>
-    </row>
-    <row r="71" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>45145.476736111108</v>
-      </c>
-      <c r="B71" s="3">
-        <v>10.18886</v>
-      </c>
-      <c r="C71" s="3">
-        <v>5.9478340000000003</v>
-      </c>
-      <c r="D71" s="3">
-        <v>65.179919999999996</v>
-      </c>
-      <c r="E71" s="3">
-        <v>91.49888</v>
-      </c>
-      <c r="F71" s="3">
-        <v>4.2275180000000002E-2</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0.99977179999999999</v>
-      </c>
-      <c r="H71" s="3">
-        <v>5.9350840000000002E-2</v>
-      </c>
-      <c r="I71" s="3">
-        <v>0.56928789999999996</v>
-      </c>
-      <c r="J71" s="3">
-        <v>9.9996989999999997</v>
-      </c>
-      <c r="K71" s="3">
-        <v>13.39362</v>
-      </c>
-      <c r="L71" s="3">
-        <v>31.513069999999999</v>
-      </c>
-      <c r="M71" s="3">
-        <v>9.4166559999999997</v>
-      </c>
-      <c r="N71" s="3">
-        <v>0.9399016</v>
-      </c>
-      <c r="O71" s="3">
-        <v>991.7079</v>
-      </c>
-      <c r="P71" s="3">
-        <v>46.905122599999999</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>-91.035903779999998</v>
-      </c>
-      <c r="R71" s="3"/>
-    </row>
-    <row r="72" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>45145.476747685185</v>
-      </c>
-      <c r="B72" s="3">
-        <v>10.20501</v>
-      </c>
-      <c r="C72" s="3">
-        <v>5.964054</v>
-      </c>
-      <c r="D72" s="3">
-        <v>65.158659999999998</v>
-      </c>
-      <c r="E72" s="3">
-        <v>91.538380000000004</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4.2291919999999997E-2</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0.99977559999999999</v>
-      </c>
-      <c r="H72" s="3">
-        <v>5.9362369999999998E-2</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0.56883850000000002</v>
-      </c>
-      <c r="J72" s="3">
-        <v>9.9576729999999998</v>
-      </c>
-      <c r="K72" s="3">
-        <v>13.50615</v>
-      </c>
-      <c r="L72" s="3">
-        <v>31.772829999999999</v>
-      </c>
-      <c r="M72" s="3">
-        <v>9.4957689999999992</v>
-      </c>
-      <c r="N72" s="3">
-        <v>0.93893530000000003</v>
-      </c>
-      <c r="O72" s="3">
-        <v>991.70860000000005</v>
-      </c>
-      <c r="P72" s="3">
-        <v>46.905122599999999</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-91.035903779999998</v>
-      </c>
-      <c r="R72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>45145.476759259262</v>
-      </c>
-      <c r="B73" s="3">
-        <v>10.221159999999999</v>
-      </c>
-      <c r="C73" s="3">
-        <v>5.9802749999999998</v>
-      </c>
-      <c r="D73" s="3">
-        <v>65.1374</v>
-      </c>
-      <c r="E73" s="3">
-        <v>91.5779</v>
-      </c>
-      <c r="F73" s="3">
-        <v>4.2308659999999998E-2</v>
-      </c>
-      <c r="G73" s="3">
-        <v>0.99977930000000004</v>
-      </c>
-      <c r="H73" s="3">
-        <v>5.93739E-2</v>
-      </c>
-      <c r="I73" s="3">
-        <v>0.56838900000000003</v>
-      </c>
-      <c r="J73" s="3">
-        <v>9.9156469999999999</v>
-      </c>
-      <c r="K73" s="3">
-        <v>13.61867</v>
-      </c>
-      <c r="L73" s="3">
-        <v>32.032589999999999</v>
-      </c>
-      <c r="M73" s="3">
-        <v>9.5748809999999995</v>
-      </c>
-      <c r="N73" s="3">
-        <v>0.93796900000000005</v>
-      </c>
-      <c r="O73" s="3">
-        <v>991.70920000000001</v>
-      </c>
-      <c r="P73" s="3">
-        <v>46.905122599999999</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>-91.035903779999998</v>
-      </c>
-      <c r="R73" s="3"/>
-    </row>
-    <row r="74" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>45145.476770833331</v>
-      </c>
-      <c r="B74" s="3">
-        <v>9.9969990000000006</v>
-      </c>
-      <c r="C74" s="3">
-        <v>6.2251320000000003</v>
-      </c>
-      <c r="D74" s="3">
-        <v>63.541980000000002</v>
-      </c>
-      <c r="E74" s="3">
-        <v>91.151089999999996</v>
-      </c>
-      <c r="F74" s="3">
-        <v>4.2037539999999998E-2</v>
-      </c>
-      <c r="G74" s="3">
-        <v>0.99980939999999996</v>
-      </c>
-      <c r="H74" s="3">
-        <v>5.9229219999999999E-2</v>
-      </c>
-      <c r="I74" s="3">
-        <v>0.7234756</v>
-      </c>
-      <c r="J74" s="3">
-        <v>9.5389169999999996</v>
-      </c>
-      <c r="K74" s="3">
-        <v>14.695309999999999</v>
-      </c>
-      <c r="L74" s="3">
-        <v>34.515389999999996</v>
-      </c>
-      <c r="M74" s="3">
-        <v>10.33183</v>
-      </c>
-      <c r="N74" s="3">
-        <v>0.93008979999999997</v>
-      </c>
-      <c r="O74" s="3">
-        <v>991.69240000000002</v>
-      </c>
-      <c r="P74" s="3">
-        <v>46.905113579999998</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>-91.035895789999998</v>
-      </c>
-      <c r="R74" s="3"/>
-    </row>
-    <row r="75" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>45145.476782407408</v>
-      </c>
-      <c r="B75" s="3">
-        <v>9.9891129999999997</v>
-      </c>
-      <c r="C75" s="3">
-        <v>6.244211</v>
-      </c>
-      <c r="D75" s="3">
-        <v>63.453049999999998</v>
-      </c>
-      <c r="E75" s="3">
-        <v>91.13364</v>
-      </c>
-      <c r="F75" s="3">
-        <v>4.2025279999999998E-2</v>
-      </c>
-      <c r="G75" s="3">
-        <v>0.99981209999999998</v>
-      </c>
-      <c r="H75" s="3">
-        <v>5.922177E-2</v>
-      </c>
-      <c r="I75" s="3">
-        <v>0.73143230000000004</v>
-      </c>
-      <c r="J75" s="3">
-        <v>9.5043830000000007</v>
-      </c>
-      <c r="K75" s="3">
-        <v>14.791079999999999</v>
-      </c>
-      <c r="L75" s="3">
-        <v>34.736339999999998</v>
-      </c>
-      <c r="M75" s="3">
-        <v>10.39916</v>
-      </c>
-      <c r="N75" s="3">
-        <v>0.92935780000000001</v>
-      </c>
-      <c r="O75" s="3">
-        <v>991.69179999999994</v>
-      </c>
-      <c r="P75" s="3">
-        <v>46.905113579999998</v>
-      </c>
-      <c r="Q75" s="3">
-        <v>-91.035895789999998</v>
-      </c>
-      <c r="R75" s="3"/>
-    </row>
-    <row r="76" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>45145.476793981485</v>
-      </c>
-      <c r="B76" s="3">
-        <v>9.9812270000000005</v>
-      </c>
-      <c r="C76" s="3">
-        <v>6.2632880000000002</v>
-      </c>
-      <c r="D76" s="3">
-        <v>63.36412</v>
-      </c>
-      <c r="E76" s="3">
-        <v>91.116190000000003</v>
-      </c>
-      <c r="F76" s="3">
-        <v>4.2013019999999998E-2</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0.99981489999999995</v>
-      </c>
-      <c r="H76" s="3">
-        <v>5.9214320000000001E-2</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0.73938899999999996</v>
-      </c>
-      <c r="J76" s="3">
-        <v>9.4698510000000002</v>
-      </c>
-      <c r="K76" s="3">
-        <v>14.886850000000001</v>
-      </c>
-      <c r="L76" s="3">
-        <v>34.95729</v>
-      </c>
-      <c r="M76" s="3">
-        <v>10.4665</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0.9286259</v>
-      </c>
-      <c r="O76" s="3">
-        <v>991.69110000000001</v>
-      </c>
-      <c r="P76" s="3">
-        <v>46.905113579999998</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-91.035895789999998</v>
-      </c>
-      <c r="R76" s="3"/>
-    </row>
-    <row r="77" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>45145.476805555554</v>
-      </c>
-      <c r="B77" s="3">
-        <v>9.9733409999999996</v>
-      </c>
-      <c r="C77" s="3">
-        <v>6.2823659999999997</v>
-      </c>
-      <c r="D77" s="3">
-        <v>63.275190000000002</v>
-      </c>
-      <c r="E77" s="3">
-        <v>91.098730000000003</v>
-      </c>
-      <c r="F77" s="3">
-        <v>4.2000759999999998E-2</v>
-      </c>
-      <c r="G77" s="3">
-        <v>0.99981759999999997</v>
-      </c>
-      <c r="H77" s="3">
-        <v>5.9206870000000002E-2</v>
-      </c>
-      <c r="I77" s="3">
-        <v>0.7473457</v>
-      </c>
-      <c r="J77" s="3">
-        <v>9.4353169999999995</v>
-      </c>
-      <c r="K77" s="3">
-        <v>14.982620000000001</v>
-      </c>
-      <c r="L77" s="3">
-        <v>35.178240000000002</v>
-      </c>
-      <c r="M77" s="3">
-        <v>10.53383</v>
-      </c>
-      <c r="N77" s="3">
-        <v>0.92789390000000005</v>
-      </c>
-      <c r="O77" s="3">
-        <v>991.69039999999995</v>
-      </c>
-      <c r="P77" s="3">
-        <v>46.905108540000001</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>-91.035883690000006</v>
-      </c>
-      <c r="R77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>45145.476817129631</v>
-      </c>
-      <c r="B78" s="3">
-        <v>10.158569999999999</v>
-      </c>
-      <c r="C78" s="3">
-        <v>6.3061040000000004</v>
-      </c>
-      <c r="D78" s="3">
-        <v>62.635919999999999</v>
-      </c>
-      <c r="E78" s="3">
-        <v>91.139399999999995</v>
-      </c>
-      <c r="F78" s="3">
-        <v>4.1982930000000002E-2</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0.99984399999999996</v>
-      </c>
-      <c r="H78" s="3">
-        <v>5.9416160000000003E-2</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0.67995850000000002</v>
-      </c>
-      <c r="J78" s="3">
-        <v>8.6684450000000002</v>
-      </c>
-      <c r="K78" s="3">
-        <v>16.7118</v>
-      </c>
-      <c r="L78" s="3">
-        <v>39.169379999999997</v>
-      </c>
-      <c r="M78" s="3">
-        <v>11.74957</v>
-      </c>
-      <c r="N78" s="3">
-        <v>0.92027870000000001</v>
-      </c>
-      <c r="O78" s="3">
-        <v>991.69899999999996</v>
-      </c>
-      <c r="P78" s="3">
-        <v>46.905108540000001</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>-91.035883690000006</v>
-      </c>
-      <c r="R78" s="3"/>
-    </row>
-    <row r="79" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>45145.4768287037</v>
-      </c>
-      <c r="B79" s="3">
-        <v>10.163069999999999</v>
-      </c>
-      <c r="C79" s="3">
-        <v>6.3128510000000002</v>
-      </c>
-      <c r="D79" s="3">
-        <v>62.568820000000002</v>
-      </c>
-      <c r="E79" s="3">
-        <v>91.132379999999998</v>
-      </c>
-      <c r="F79" s="3">
-        <v>4.197621E-2</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0.99984600000000001</v>
-      </c>
-      <c r="H79" s="3">
-        <v>5.9423509999999999E-2</v>
-      </c>
-      <c r="I79" s="3">
-        <v>0.67997989999999997</v>
-      </c>
-      <c r="J79" s="3">
-        <v>8.6213669999999993</v>
-      </c>
-      <c r="K79" s="3">
-        <v>16.823129999999999</v>
-      </c>
-      <c r="L79" s="3">
-        <v>39.426279999999998</v>
-      </c>
-      <c r="M79" s="3">
-        <v>11.82784</v>
-      </c>
-      <c r="N79" s="3">
-        <v>0.91971460000000005</v>
-      </c>
-      <c r="O79" s="3">
-        <v>991.69899999999996</v>
-      </c>
-      <c r="P79" s="3">
-        <v>46.905108540000001</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>-91.035883690000006</v>
-      </c>
-      <c r="R79" s="3"/>
-    </row>
-    <row r="80" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <v>45145.476840277777</v>
-      </c>
-      <c r="B80" s="3">
-        <v>10.16757</v>
-      </c>
-      <c r="C80" s="3">
-        <v>6.319598</v>
-      </c>
-      <c r="D80" s="3">
-        <v>62.501719999999999</v>
-      </c>
-      <c r="E80" s="3">
-        <v>91.125349999999997</v>
-      </c>
-      <c r="F80" s="3">
-        <v>4.19695E-2</v>
-      </c>
-      <c r="G80" s="3">
-        <v>0.99984810000000002</v>
-      </c>
-      <c r="H80" s="3">
-        <v>5.9430869999999997E-2</v>
-      </c>
-      <c r="I80" s="3">
-        <v>0.68000130000000003</v>
-      </c>
-      <c r="J80" s="3">
-        <v>8.5742910000000006</v>
-      </c>
-      <c r="K80" s="3">
-        <v>16.934449999999998</v>
-      </c>
-      <c r="L80" s="3">
-        <v>39.68318</v>
-      </c>
-      <c r="M80" s="3">
-        <v>11.90611</v>
-      </c>
-      <c r="N80" s="3">
-        <v>0.91915049999999998</v>
-      </c>
-      <c r="O80" s="3">
-        <v>991.69910000000004</v>
-      </c>
-      <c r="P80" s="3">
-        <v>46.905108540000001</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>-91.035883690000006</v>
-      </c>
-      <c r="R80" s="3"/>
-    </row>
-    <row r="81" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>45145.476851851854</v>
-      </c>
-      <c r="B81" s="3">
-        <v>10.376899999999999</v>
-      </c>
-      <c r="C81" s="3">
-        <v>6.4174509999999998</v>
-      </c>
-      <c r="D81" s="3">
-        <v>62.068429999999999</v>
-      </c>
-      <c r="E81" s="3">
-        <v>92.047449999999998</v>
-      </c>
-      <c r="F81" s="3">
-        <v>4.2346799999999997E-2</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0.99988699999999997</v>
-      </c>
-      <c r="H81" s="3">
-        <v>5.9852759999999998E-2</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0.74327770000000004</v>
-      </c>
-      <c r="J81" s="3">
-        <v>8.24</v>
-      </c>
-      <c r="K81" s="3">
-        <v>17.5397</v>
-      </c>
-      <c r="L81" s="3">
-        <v>40.987090000000002</v>
-      </c>
-      <c r="M81" s="3">
-        <v>12.331630000000001</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0.91924589999999995</v>
-      </c>
-      <c r="O81" s="3">
-        <v>991.68209999999999</v>
-      </c>
-      <c r="P81" s="3">
-        <v>46.905108540000001</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-91.035883690000006</v>
-      </c>
-      <c r="R81" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
